--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50241D9-A0C9-4FEE-B085-B512BCC825E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
@@ -98,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -143,6 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915AD513-53F8-40F4-A354-CA3E5A7D20AA}">
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +487,7 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50241D9-A0C9-4FEE-B085-B512BCC825E2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D9391CD-A8CC-4E27-BBC4-6B0C57D58133}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
@@ -165,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +471,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +499,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D9391CD-A8CC-4E27-BBC4-6B0C57D58133}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E95146D1-2590-487C-BCD0-5B3012D718E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Develop and train supervised machine learning models using the training dataset. Experiment with different algorithms (logistic regression, decision trees, random forests, etc.) and hyperparameters. Evaluate the models using appropriate metrics (accuracy, precision, recall, F1-score) on the testing dataset.</t>
   </si>
   <si>
-    <t>Refine the machine learning models based on the insights gained from experiments and observations. Fine-tune the models' hyperparameters to optimize their performance. Validate the models' generalizability by testing them on unseen data.</t>
-  </si>
-  <si>
     <t>Conduct a comprehensive analysis of the experimental and observational results. Interpret the findings, discuss the significance of the variables, and evaluate the overall performance of the models.</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Finalise the results and analysis section, including visualizations, tables, and statistical analyses. Write the discussion section, interpret the results, discuss their implications, and compare them to previous research. Start drafting the conclusion section, summarising the key findings, limitations, and recommendations for future research.</t>
+  </si>
+  <si>
+    <t>Focus on write-up. If needed, refine the machine learning models based on the insights gained from experiments and observations. Fine-tune the models' hyperparameters to optimize their performance. Validate the models' generalizability by testing them on unseen data.</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915AD513-53F8-40F4-A354-CA3E5A7D20AA}">
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E95146D1-2590-487C-BCD0-5B3012D718E1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE14812-2315-4E59-B2BE-3A09DF7A6AC3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915AD513-53F8-40F4-A354-CA3E5A7D20AA}">
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE14812-2315-4E59-B2BE-3A09DF7A6AC3}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ABBC420-EB7B-49A7-9810-998C77947315}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
+    <sheet name="Experimental Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Experimental Plan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Week</t>
   </si>
@@ -75,6 +77,135 @@
   </si>
   <si>
     <t>Focus on write-up. If needed, refine the machine learning models based on the insights gained from experiments and observations. Fine-tune the models' hyperparameters to optimize their performance. Validate the models' generalizability by testing them on unseen data.</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>Sample Selection</t>
+  </si>
+  <si>
+    <t>Experimental Groups</t>
+  </si>
+  <si>
+    <t>Model Training</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Validation and Generalisation</t>
+  </si>
+  <si>
+    <t>Conduct correlation analysis and calculate feature importances. Select top-n features.</t>
+  </si>
+  <si>
+    <t>Implement stratified random sampling to create a representative sample.</t>
+  </si>
+  <si>
+    <t>Divide the sample into multiple groups, each representing a different ML model.</t>
+  </si>
+  <si>
+    <t>Train each ML model using selected features and optimized hyperparameters.</t>
+  </si>
+  <si>
+    <t>Evaluate model performance on the training set using evaluation metrics.</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Collect and preprocess life assurance application dataset.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Expected Outcomes</t>
+  </si>
+  <si>
+    <t>Feature Impact Analysis</t>
+  </si>
+  <si>
+    <t>Identify features consistently contributing to model accuracy.</t>
+  </si>
+  <si>
+    <t>Model Comparison and Selection</t>
+  </si>
+  <si>
+    <t>Compare performance of different ML models in predicting application conversion.</t>
+  </si>
+  <si>
+    <t>Identify models with highest accuracy and assess hyperparameter contribution.</t>
+  </si>
+  <si>
+    <t>Test models on unseen test set to assess generalisability.</t>
+  </si>
+  <si>
+    <t>Analyse experimental results to identify features with significant impact on application conversion.</t>
+  </si>
+  <si>
+    <t>Test selected models on unseen test set.</t>
+  </si>
+  <si>
+    <t>Assess generalisability and validate model performance.</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Description and Notes</t>
+  </si>
+  <si>
+    <t>Model: Logistic Regression</t>
+  </si>
+  <si>
+    <t>Model: Random Forest</t>
+  </si>
+  <si>
+    <t>Model: Neural Network</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning for Best Model</t>
+  </si>
+  <si>
+    <t>Model Evaluation with Test Data</t>
+  </si>
+  <si>
+    <t>Compare Model Performance and Select Best Model</t>
+  </si>
+  <si>
+    <t>Refine Best Model and Feature Importance Analysis</t>
+  </si>
+  <si>
+    <t>Interpretation of Model Results and Recommendations</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Model: Support Vector Machine</t>
+  </si>
+  <si>
+    <t>Validate Model on Unseen Data and Generalisation</t>
+  </si>
+  <si>
+    <t>Finalise Experimental Report and Documentation</t>
   </si>
 </sst>
 </file>
@@ -139,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -150,6 +281,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,110 +602,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915AD513-53F8-40F4-A354-CA3E5A7D20AA}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -579,4 +713,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C607A7-8979-4A28-8F1E-9B2E3D8C8BAD}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931071FD-A039-4A32-B87A-FB3F1F4290AD}">
+  <dimension ref="B2:D19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ABBC420-EB7B-49A7-9810-998C77947315}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FEB6C51-71E6-4D1A-8716-ADBF4001F5D4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Week</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Finalise Experimental Report and Documentation</t>
+  </si>
+  <si>
+    <t>Model: Decision Tree</t>
   </si>
 </sst>
 </file>
@@ -814,10 +817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931071FD-A039-4A32-B87A-FB3F1F4290AD}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -908,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -917,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -926,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -935,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -944,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -953,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -962,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -971,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -980,9 +983,18 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FEB6C51-71E6-4D1A-8716-ADBF4001F5D4}"/>
+  <xr:revisionPtr revIDLastSave="636" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9EE040-62A8-49AE-B41E-7833BB66DD02}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Experimental Design" sheetId="2" r:id="rId2"/>
     <sheet name="Experimental Plan" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment Table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -209,6 +210,81 @@
   </si>
   <si>
     <t>Model: Decision Tree</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Imbalanced Dataset with all features</t>
+  </si>
+  <si>
+    <t>Rebalanced Dataset with all features</t>
+  </si>
+  <si>
+    <t>Rebalanced Dataset with top n features</t>
+  </si>
+  <si>
+    <t>Rebalanced Dataset with engineered features</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Imbalanced Dataset with top n features</t>
+  </si>
+  <si>
+    <t>Imbalanced Dataset with engineered features</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Feature Names</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Test Size</t>
+  </si>
+  <si>
+    <t>K-Folds</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>Train AUC</t>
+  </si>
+  <si>
+    <t>Test AUC</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Stochastic Gradient Descent</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
   </si>
 </sst>
 </file>
@@ -246,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,11 +345,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -286,6 +455,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931071FD-A039-4A32-B87A-FB3F1F4290AD}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,4 +1238,5074 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E84B675-7781-4B33-8C9F-EC9678937E4F}">
+  <dimension ref="B2:L298"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="18.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="7" customWidth="1"/>
+    <col min="9" max="12" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K3" s="23">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="23">
+        <v>5</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="23">
+        <v>10</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="23">
+        <v>20</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="23">
+        <v>5</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="23">
+        <v>10</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0.622</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="23">
+        <v>20</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="23">
+        <v>5</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="23">
+        <v>10</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="23">
+        <v>20</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="23">
+        <v>5</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K16" s="23">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="23">
+        <v>10</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="23">
+        <v>20</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="23">
+        <v>5</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="23">
+        <v>10</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="23">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="23">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="23">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J22" s="23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20">
+        <v>10</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20">
+        <v>20</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25">
+        <v>30</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J26" s="29">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="23">
+        <v>5</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K27" s="23">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L27" s="23">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="23">
+        <v>10</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K28" s="23">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="L28" s="23">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="23">
+        <v>20</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K29" s="23">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L29" s="23">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="K30" s="23">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L30" s="23">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="23">
+        <v>5</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="J31" s="23">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="K31" s="23">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="L31" s="23">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="23">
+        <v>10</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="23">
+        <v>20</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="J33" s="23">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K33" s="23">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="L33" s="23">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="23">
+        <v>5</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="K35" s="23">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L35" s="23">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="23">
+        <v>10</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K36" s="23">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L36" s="23">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="23">
+        <v>20</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="J37" s="23">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="K37" s="23">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L37" s="23">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K38" s="23">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L38" s="23">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="23">
+        <v>5</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J39" s="23">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K39" s="23">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="L39" s="23">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="23">
+        <v>10</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K40" s="23">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="L40" s="23">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="23">
+        <v>20</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K41" s="23">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L41" s="23">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K42" s="20">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L42" s="20">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="23">
+        <v>5</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K43" s="20">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="L43" s="20">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="23">
+        <v>10</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="K44" s="20">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="L44" s="20">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="23">
+        <v>20</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K45" s="20">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="L45" s="20">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20">
+        <v>10</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="23">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20">
+        <v>20</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="13"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25">
+        <v>30</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11">
+        <v>3</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11">
+        <v>4</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="11">
+        <v>5</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="11">
+        <v>6</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="11">
+        <v>7</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="12"/>
+      <c r="C79" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D79" s="11">
+        <v>2</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="11">
+        <v>3</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11">
+        <v>4</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="11">
+        <v>5</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="11">
+        <v>6</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="11">
+        <v>7</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D109" s="11">
+        <v>2</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="11">
+        <v>3</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="11">
+        <v>4</v>
+      </c>
+      <c r="E119" s="14"/>
+      <c r="F119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="11">
+        <v>5</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="11">
+        <v>6</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="11">
+        <v>7</v>
+      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B138" s="12"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="23"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B139" s="12"/>
+      <c r="C139" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D139" s="11">
+        <v>2</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="23"/>
+      <c r="L139" s="23"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="23"/>
+      <c r="L140" s="23"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="23"/>
+      <c r="L143" s="23"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="11">
+        <v>3</v>
+      </c>
+      <c r="E144" s="14"/>
+      <c r="F144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="23"/>
+      <c r="L144" s="23"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="23"/>
+      <c r="L147" s="23"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="11">
+        <v>4</v>
+      </c>
+      <c r="E149" s="14"/>
+      <c r="F149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="23"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="23"/>
+      <c r="K151" s="23"/>
+      <c r="L151" s="23"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="23"/>
+      <c r="K152" s="23"/>
+      <c r="L152" s="23"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="23"/>
+      <c r="L153" s="23"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="11">
+        <v>5</v>
+      </c>
+      <c r="E154" s="14"/>
+      <c r="F154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="23"/>
+      <c r="L155" s="23"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="23"/>
+      <c r="L156" s="23"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="23"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="11">
+        <v>6</v>
+      </c>
+      <c r="E159" s="14"/>
+      <c r="F159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="23"/>
+      <c r="L159" s="23"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="23"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
+      <c r="J161" s="23"/>
+      <c r="K161" s="23"/>
+      <c r="L161" s="23"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="23"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="23"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23"/>
+      <c r="J163" s="23"/>
+      <c r="K163" s="23"/>
+      <c r="L163" s="23"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="11">
+        <v>7</v>
+      </c>
+      <c r="E164" s="14"/>
+      <c r="F164" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="23"/>
+      <c r="L164" s="23"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="23"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="23"/>
+      <c r="K166" s="23"/>
+      <c r="L166" s="23"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="23"/>
+      <c r="K167" s="23"/>
+      <c r="L167" s="23"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="23"/>
+      <c r="K168" s="23"/>
+      <c r="L168" s="23"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B169" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="23"/>
+      <c r="K169" s="23"/>
+      <c r="L169" s="23"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="23"/>
+      <c r="K170" s="23"/>
+      <c r="L170" s="23"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="23"/>
+      <c r="J171" s="23"/>
+      <c r="K171" s="23"/>
+      <c r="L171" s="23"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="23"/>
+      <c r="K172" s="23"/>
+      <c r="L172" s="23"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B173" s="12"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
+      <c r="I173" s="23"/>
+      <c r="J173" s="23"/>
+      <c r="K173" s="23"/>
+      <c r="L173" s="23"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B174" s="12"/>
+      <c r="C174" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="23"/>
+      <c r="K174" s="23"/>
+      <c r="L174" s="23"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="23"/>
+      <c r="K175" s="23"/>
+      <c r="L175" s="23"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="23"/>
+      <c r="K176" s="23"/>
+      <c r="L176" s="23"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="23"/>
+      <c r="K177" s="23"/>
+      <c r="L177" s="23"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="23"/>
+      <c r="K178" s="23"/>
+      <c r="L178" s="23"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B179" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D179" s="11">
+        <v>2</v>
+      </c>
+      <c r="E179" s="14"/>
+      <c r="F179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G179" s="23"/>
+      <c r="H179" s="23"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="23"/>
+      <c r="K179" s="23"/>
+      <c r="L179" s="23"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="23"/>
+      <c r="K180" s="23"/>
+      <c r="L180" s="23"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G182" s="23"/>
+      <c r="H182" s="23"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="23"/>
+      <c r="L182" s="23"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G183" s="23"/>
+      <c r="H183" s="23"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="23"/>
+      <c r="K183" s="23"/>
+      <c r="L183" s="23"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="11">
+        <v>3</v>
+      </c>
+      <c r="E184" s="14"/>
+      <c r="F184" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="23"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G185" s="23"/>
+      <c r="H185" s="23"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="23"/>
+      <c r="K185" s="23"/>
+      <c r="L185" s="23"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G186" s="23"/>
+      <c r="H186" s="23"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="23"/>
+      <c r="L186" s="23"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="23"/>
+      <c r="L187" s="23"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23"/>
+      <c r="I188" s="23"/>
+      <c r="J188" s="23"/>
+      <c r="K188" s="23"/>
+      <c r="L188" s="23"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="11">
+        <v>4</v>
+      </c>
+      <c r="E189" s="14"/>
+      <c r="F189" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23"/>
+      <c r="I189" s="23"/>
+      <c r="J189" s="23"/>
+      <c r="K189" s="23"/>
+      <c r="L189" s="23"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="23"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G191" s="23"/>
+      <c r="H191" s="23"/>
+      <c r="I191" s="23"/>
+      <c r="J191" s="23"/>
+      <c r="K191" s="23"/>
+      <c r="L191" s="23"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G192" s="23"/>
+      <c r="H192" s="23"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="23"/>
+      <c r="K192" s="23"/>
+      <c r="L192" s="23"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G193" s="23"/>
+      <c r="H193" s="23"/>
+      <c r="I193" s="23"/>
+      <c r="J193" s="23"/>
+      <c r="K193" s="23"/>
+      <c r="L193" s="23"/>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="11">
+        <v>5</v>
+      </c>
+      <c r="E194" s="14"/>
+      <c r="F194" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="23"/>
+      <c r="L194" s="23"/>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G196" s="23"/>
+      <c r="H196" s="23"/>
+      <c r="I196" s="23"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G197" s="23"/>
+      <c r="H197" s="23"/>
+      <c r="I197" s="23"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="23"/>
+      <c r="L197" s="23"/>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G198" s="23"/>
+      <c r="H198" s="23"/>
+      <c r="I198" s="23"/>
+      <c r="J198" s="23"/>
+      <c r="K198" s="23"/>
+      <c r="L198" s="23"/>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="11">
+        <v>6</v>
+      </c>
+      <c r="E199" s="14"/>
+      <c r="F199" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G199" s="23"/>
+      <c r="H199" s="23"/>
+      <c r="I199" s="23"/>
+      <c r="J199" s="23"/>
+      <c r="K199" s="23"/>
+      <c r="L199" s="23"/>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="23"/>
+      <c r="K200" s="23"/>
+      <c r="L200" s="23"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
+      <c r="J201" s="23"/>
+      <c r="K201" s="23"/>
+      <c r="L201" s="23"/>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G202" s="23"/>
+      <c r="H202" s="23"/>
+      <c r="I202" s="23"/>
+      <c r="J202" s="23"/>
+      <c r="K202" s="23"/>
+      <c r="L202" s="23"/>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="23"/>
+      <c r="J203" s="23"/>
+      <c r="K203" s="23"/>
+      <c r="L203" s="23"/>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="11">
+        <v>7</v>
+      </c>
+      <c r="E204" s="14"/>
+      <c r="F204" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23"/>
+      <c r="I204" s="23"/>
+      <c r="J204" s="23"/>
+      <c r="K204" s="23"/>
+      <c r="L204" s="23"/>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G205" s="23"/>
+      <c r="H205" s="23"/>
+      <c r="I205" s="23"/>
+      <c r="J205" s="23"/>
+      <c r="K205" s="23"/>
+      <c r="L205" s="23"/>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G206" s="23"/>
+      <c r="H206" s="23"/>
+      <c r="I206" s="23"/>
+      <c r="J206" s="23"/>
+      <c r="K206" s="23"/>
+      <c r="L206" s="23"/>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" s="23"/>
+      <c r="H207" s="23"/>
+      <c r="I207" s="23"/>
+      <c r="J207" s="23"/>
+      <c r="K207" s="23"/>
+      <c r="L207" s="23"/>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B208" s="12"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G208" s="23"/>
+      <c r="H208" s="23"/>
+      <c r="I208" s="23"/>
+      <c r="J208" s="23"/>
+      <c r="K208" s="23"/>
+      <c r="L208" s="23"/>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B209" s="12"/>
+      <c r="C209" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D209" s="11">
+        <v>2</v>
+      </c>
+      <c r="E209" s="14"/>
+      <c r="F209" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G209" s="23"/>
+      <c r="H209" s="23"/>
+      <c r="I209" s="23"/>
+      <c r="J209" s="23"/>
+      <c r="K209" s="23"/>
+      <c r="L209" s="23"/>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G210" s="23"/>
+      <c r="H210" s="23"/>
+      <c r="I210" s="23"/>
+      <c r="J210" s="23"/>
+      <c r="K210" s="23"/>
+      <c r="L210" s="23"/>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G211" s="23"/>
+      <c r="H211" s="23"/>
+      <c r="I211" s="23"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="23"/>
+      <c r="L211" s="23"/>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G212" s="23"/>
+      <c r="H212" s="23"/>
+      <c r="I212" s="23"/>
+      <c r="J212" s="23"/>
+      <c r="K212" s="23"/>
+      <c r="L212" s="23"/>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="23"/>
+      <c r="J213" s="23"/>
+      <c r="K213" s="23"/>
+      <c r="L213" s="23"/>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="11">
+        <v>3</v>
+      </c>
+      <c r="E214" s="14"/>
+      <c r="F214" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G214" s="23"/>
+      <c r="H214" s="23"/>
+      <c r="I214" s="23"/>
+      <c r="J214" s="23"/>
+      <c r="K214" s="23"/>
+      <c r="L214" s="23"/>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G215" s="23"/>
+      <c r="H215" s="23"/>
+      <c r="I215" s="23"/>
+      <c r="J215" s="23"/>
+      <c r="K215" s="23"/>
+      <c r="L215" s="23"/>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="23"/>
+      <c r="K216" s="23"/>
+      <c r="L216" s="23"/>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="23"/>
+      <c r="L217" s="23"/>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G218" s="23"/>
+      <c r="H218" s="23"/>
+      <c r="I218" s="23"/>
+      <c r="J218" s="23"/>
+      <c r="K218" s="23"/>
+      <c r="L218" s="23"/>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="11">
+        <v>4</v>
+      </c>
+      <c r="E219" s="14"/>
+      <c r="F219" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="23"/>
+      <c r="K219" s="23"/>
+      <c r="L219" s="23"/>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="23"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G221" s="23"/>
+      <c r="H221" s="23"/>
+      <c r="I221" s="23"/>
+      <c r="J221" s="23"/>
+      <c r="K221" s="23"/>
+      <c r="L221" s="23"/>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="23"/>
+      <c r="K222" s="23"/>
+      <c r="L222" s="23"/>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G223" s="23"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="23"/>
+      <c r="J223" s="23"/>
+      <c r="K223" s="23"/>
+      <c r="L223" s="23"/>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="11">
+        <v>5</v>
+      </c>
+      <c r="E224" s="14"/>
+      <c r="F224" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G224" s="23"/>
+      <c r="H224" s="23"/>
+      <c r="I224" s="23"/>
+      <c r="J224" s="23"/>
+      <c r="K224" s="23"/>
+      <c r="L224" s="23"/>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G225" s="23"/>
+      <c r="H225" s="23"/>
+      <c r="I225" s="23"/>
+      <c r="J225" s="23"/>
+      <c r="K225" s="23"/>
+      <c r="L225" s="23"/>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G226" s="23"/>
+      <c r="H226" s="23"/>
+      <c r="I226" s="23"/>
+      <c r="J226" s="23"/>
+      <c r="K226" s="23"/>
+      <c r="L226" s="23"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
+      <c r="I227" s="23"/>
+      <c r="J227" s="23"/>
+      <c r="K227" s="23"/>
+      <c r="L227" s="23"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
+      <c r="J228" s="23"/>
+      <c r="K228" s="23"/>
+      <c r="L228" s="23"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="11">
+        <v>6</v>
+      </c>
+      <c r="E229" s="14"/>
+      <c r="F229" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
+      <c r="J229" s="23"/>
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="23"/>
+      <c r="K230" s="23"/>
+      <c r="L230" s="23"/>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G231" s="23"/>
+      <c r="H231" s="23"/>
+      <c r="I231" s="23"/>
+      <c r="J231" s="23"/>
+      <c r="K231" s="23"/>
+      <c r="L231" s="23"/>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="23"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="11">
+        <v>7</v>
+      </c>
+      <c r="E234" s="14"/>
+      <c r="F234" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G234" s="23"/>
+      <c r="H234" s="23"/>
+      <c r="I234" s="23"/>
+      <c r="J234" s="23"/>
+      <c r="K234" s="23"/>
+      <c r="L234" s="23"/>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B236" s="12"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="23"/>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B237" s="12"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G237" s="23"/>
+      <c r="H237" s="23"/>
+      <c r="I237" s="23"/>
+      <c r="J237" s="23"/>
+      <c r="K237" s="23"/>
+      <c r="L237" s="23"/>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="23"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B239" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C239" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D239" s="11">
+        <v>2</v>
+      </c>
+      <c r="E239" s="14"/>
+      <c r="F239" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="23"/>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G240" s="23"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="23"/>
+      <c r="J240" s="23"/>
+      <c r="K240" s="23"/>
+      <c r="L240" s="23"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B242" s="12"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G242" s="23"/>
+      <c r="H242" s="23"/>
+      <c r="I242" s="23"/>
+      <c r="J242" s="23"/>
+      <c r="K242" s="23"/>
+      <c r="L242" s="23"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G243" s="23"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="23"/>
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="11">
+        <v>3</v>
+      </c>
+      <c r="E244" s="14"/>
+      <c r="F244" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
+      <c r="J244" s="23"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B245" s="12"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
+      <c r="J245" s="23"/>
+      <c r="K245" s="23"/>
+      <c r="L245" s="23"/>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B246" s="12"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
+      <c r="J247" s="23"/>
+      <c r="K247" s="23"/>
+      <c r="L247" s="23"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G248" s="23"/>
+      <c r="H248" s="23"/>
+      <c r="I248" s="23"/>
+      <c r="J248" s="23"/>
+      <c r="K248" s="23"/>
+      <c r="L248" s="23"/>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="11">
+        <v>4</v>
+      </c>
+      <c r="E249" s="14"/>
+      <c r="F249" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G249" s="23"/>
+      <c r="H249" s="23"/>
+      <c r="I249" s="23"/>
+      <c r="J249" s="23"/>
+      <c r="K249" s="23"/>
+      <c r="L249" s="23"/>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G250" s="23"/>
+      <c r="H250" s="23"/>
+      <c r="I250" s="23"/>
+      <c r="J250" s="23"/>
+      <c r="K250" s="23"/>
+      <c r="L250" s="23"/>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G251" s="23"/>
+      <c r="H251" s="23"/>
+      <c r="I251" s="23"/>
+      <c r="J251" s="23"/>
+      <c r="K251" s="23"/>
+      <c r="L251" s="23"/>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B252" s="12"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G252" s="23"/>
+      <c r="H252" s="23"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="23"/>
+      <c r="K252" s="23"/>
+      <c r="L252" s="23"/>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G253" s="23"/>
+      <c r="H253" s="23"/>
+      <c r="I253" s="23"/>
+      <c r="J253" s="23"/>
+      <c r="K253" s="23"/>
+      <c r="L253" s="23"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B254" s="12"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="11">
+        <v>5</v>
+      </c>
+      <c r="E254" s="14"/>
+      <c r="F254" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G254" s="23"/>
+      <c r="H254" s="23"/>
+      <c r="I254" s="23"/>
+      <c r="J254" s="23"/>
+      <c r="K254" s="23"/>
+      <c r="L254" s="23"/>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B255" s="12"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G255" s="23"/>
+      <c r="H255" s="23"/>
+      <c r="I255" s="23"/>
+      <c r="J255" s="23"/>
+      <c r="K255" s="23"/>
+      <c r="L255" s="23"/>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B256" s="12"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G256" s="23"/>
+      <c r="H256" s="23"/>
+      <c r="I256" s="23"/>
+      <c r="J256" s="23"/>
+      <c r="K256" s="23"/>
+      <c r="L256" s="23"/>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G257" s="23"/>
+      <c r="H257" s="23"/>
+      <c r="I257" s="23"/>
+      <c r="J257" s="23"/>
+      <c r="K257" s="23"/>
+      <c r="L257" s="23"/>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G258" s="23"/>
+      <c r="H258" s="23"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="23"/>
+      <c r="K258" s="23"/>
+      <c r="L258" s="23"/>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="11">
+        <v>6</v>
+      </c>
+      <c r="E259" s="14"/>
+      <c r="F259" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G259" s="23"/>
+      <c r="H259" s="23"/>
+      <c r="I259" s="23"/>
+      <c r="J259" s="23"/>
+      <c r="K259" s="23"/>
+      <c r="L259" s="23"/>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G260" s="23"/>
+      <c r="H260" s="23"/>
+      <c r="I260" s="23"/>
+      <c r="J260" s="23"/>
+      <c r="K260" s="23"/>
+      <c r="L260" s="23"/>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G261" s="23"/>
+      <c r="H261" s="23"/>
+      <c r="I261" s="23"/>
+      <c r="J261" s="23"/>
+      <c r="K261" s="23"/>
+      <c r="L261" s="23"/>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G262" s="23"/>
+      <c r="H262" s="23"/>
+      <c r="I262" s="23"/>
+      <c r="J262" s="23"/>
+      <c r="K262" s="23"/>
+      <c r="L262" s="23"/>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="16"/>
+      <c r="F263" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G263" s="23"/>
+      <c r="H263" s="23"/>
+      <c r="I263" s="23"/>
+      <c r="J263" s="23"/>
+      <c r="K263" s="23"/>
+      <c r="L263" s="23"/>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="11">
+        <v>7</v>
+      </c>
+      <c r="E264" s="14"/>
+      <c r="F264" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G264" s="23"/>
+      <c r="H264" s="23"/>
+      <c r="I264" s="23"/>
+      <c r="J264" s="23"/>
+      <c r="K264" s="23"/>
+      <c r="L264" s="23"/>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G265" s="23"/>
+      <c r="H265" s="23"/>
+      <c r="I265" s="23"/>
+      <c r="J265" s="23"/>
+      <c r="K265" s="23"/>
+      <c r="L265" s="23"/>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G266" s="23"/>
+      <c r="H266" s="23"/>
+      <c r="I266" s="23"/>
+      <c r="J266" s="23"/>
+      <c r="K266" s="23"/>
+      <c r="L266" s="23"/>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G267" s="23"/>
+      <c r="H267" s="23"/>
+      <c r="I267" s="23"/>
+      <c r="J267" s="23"/>
+      <c r="K267" s="23"/>
+      <c r="L267" s="23"/>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B268" s="12"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="16"/>
+      <c r="F268" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G268" s="23"/>
+      <c r="H268" s="23"/>
+      <c r="I268" s="23"/>
+      <c r="J268" s="23"/>
+      <c r="K268" s="23"/>
+      <c r="L268" s="23"/>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B269" s="12"/>
+      <c r="C269" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D269" s="11">
+        <v>2</v>
+      </c>
+      <c r="E269" s="14"/>
+      <c r="F269" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G269" s="23"/>
+      <c r="H269" s="23"/>
+      <c r="I269" s="23"/>
+      <c r="J269" s="23"/>
+      <c r="K269" s="23"/>
+      <c r="L269" s="23"/>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G270" s="23"/>
+      <c r="H270" s="23"/>
+      <c r="I270" s="23"/>
+      <c r="J270" s="23"/>
+      <c r="K270" s="23"/>
+      <c r="L270" s="23"/>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B271" s="12"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="23"/>
+      <c r="K271" s="23"/>
+      <c r="L271" s="23"/>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="15"/>
+      <c r="F272" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G272" s="23"/>
+      <c r="H272" s="23"/>
+      <c r="I272" s="23"/>
+      <c r="J272" s="23"/>
+      <c r="K272" s="23"/>
+      <c r="L272" s="23"/>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G273" s="23"/>
+      <c r="H273" s="23"/>
+      <c r="I273" s="23"/>
+      <c r="J273" s="23"/>
+      <c r="K273" s="23"/>
+      <c r="L273" s="23"/>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="11">
+        <v>3</v>
+      </c>
+      <c r="E274" s="14"/>
+      <c r="F274" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G274" s="23"/>
+      <c r="H274" s="23"/>
+      <c r="I274" s="23"/>
+      <c r="J274" s="23"/>
+      <c r="K274" s="23"/>
+      <c r="L274" s="23"/>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G275" s="23"/>
+      <c r="H275" s="23"/>
+      <c r="I275" s="23"/>
+      <c r="J275" s="23"/>
+      <c r="K275" s="23"/>
+      <c r="L275" s="23"/>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G276" s="23"/>
+      <c r="H276" s="23"/>
+      <c r="I276" s="23"/>
+      <c r="J276" s="23"/>
+      <c r="K276" s="23"/>
+      <c r="L276" s="23"/>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G277" s="23"/>
+      <c r="H277" s="23"/>
+      <c r="I277" s="23"/>
+      <c r="J277" s="23"/>
+      <c r="K277" s="23"/>
+      <c r="L277" s="23"/>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G278" s="23"/>
+      <c r="H278" s="23"/>
+      <c r="I278" s="23"/>
+      <c r="J278" s="23"/>
+      <c r="K278" s="23"/>
+      <c r="L278" s="23"/>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="11">
+        <v>4</v>
+      </c>
+      <c r="E279" s="14"/>
+      <c r="F279" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G279" s="23"/>
+      <c r="H279" s="23"/>
+      <c r="I279" s="23"/>
+      <c r="J279" s="23"/>
+      <c r="K279" s="23"/>
+      <c r="L279" s="23"/>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G280" s="23"/>
+      <c r="H280" s="23"/>
+      <c r="I280" s="23"/>
+      <c r="J280" s="23"/>
+      <c r="K280" s="23"/>
+      <c r="L280" s="23"/>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B281" s="12"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G281" s="23"/>
+      <c r="H281" s="23"/>
+      <c r="I281" s="23"/>
+      <c r="J281" s="23"/>
+      <c r="K281" s="23"/>
+      <c r="L281" s="23"/>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G282" s="23"/>
+      <c r="H282" s="23"/>
+      <c r="I282" s="23"/>
+      <c r="J282" s="23"/>
+      <c r="K282" s="23"/>
+      <c r="L282" s="23"/>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G283" s="23"/>
+      <c r="H283" s="23"/>
+      <c r="I283" s="23"/>
+      <c r="J283" s="23"/>
+      <c r="K283" s="23"/>
+      <c r="L283" s="23"/>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="11">
+        <v>5</v>
+      </c>
+      <c r="E284" s="14"/>
+      <c r="F284" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G284" s="23"/>
+      <c r="H284" s="23"/>
+      <c r="I284" s="23"/>
+      <c r="J284" s="23"/>
+      <c r="K284" s="23"/>
+      <c r="L284" s="23"/>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G285" s="23"/>
+      <c r="H285" s="23"/>
+      <c r="I285" s="23"/>
+      <c r="J285" s="23"/>
+      <c r="K285" s="23"/>
+      <c r="L285" s="23"/>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="15"/>
+      <c r="F286" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G286" s="23"/>
+      <c r="H286" s="23"/>
+      <c r="I286" s="23"/>
+      <c r="J286" s="23"/>
+      <c r="K286" s="23"/>
+      <c r="L286" s="23"/>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G287" s="23"/>
+      <c r="H287" s="23"/>
+      <c r="I287" s="23"/>
+      <c r="J287" s="23"/>
+      <c r="K287" s="23"/>
+      <c r="L287" s="23"/>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G288" s="23"/>
+      <c r="H288" s="23"/>
+      <c r="I288" s="23"/>
+      <c r="J288" s="23"/>
+      <c r="K288" s="23"/>
+      <c r="L288" s="23"/>
+    </row>
+    <row r="289" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="11">
+        <v>6</v>
+      </c>
+      <c r="E289" s="14"/>
+      <c r="F289" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G289" s="23"/>
+      <c r="H289" s="23"/>
+      <c r="I289" s="23"/>
+      <c r="J289" s="23"/>
+      <c r="K289" s="23"/>
+      <c r="L289" s="23"/>
+    </row>
+    <row r="290" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G290" s="23"/>
+      <c r="H290" s="23"/>
+      <c r="I290" s="23"/>
+      <c r="J290" s="23"/>
+      <c r="K290" s="23"/>
+      <c r="L290" s="23"/>
+    </row>
+    <row r="291" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G291" s="23"/>
+      <c r="H291" s="23"/>
+      <c r="I291" s="23"/>
+      <c r="J291" s="23"/>
+      <c r="K291" s="23"/>
+      <c r="L291" s="23"/>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="15"/>
+      <c r="F292" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G292" s="23"/>
+      <c r="H292" s="23"/>
+      <c r="I292" s="23"/>
+      <c r="J292" s="23"/>
+      <c r="K292" s="23"/>
+      <c r="L292" s="23"/>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G293" s="23"/>
+      <c r="H293" s="23"/>
+      <c r="I293" s="23"/>
+      <c r="J293" s="23"/>
+      <c r="K293" s="23"/>
+      <c r="L293" s="23"/>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="11">
+        <v>7</v>
+      </c>
+      <c r="E294" s="14"/>
+      <c r="F294" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G294" s="23"/>
+      <c r="H294" s="23"/>
+      <c r="I294" s="23"/>
+      <c r="J294" s="23"/>
+      <c r="K294" s="23"/>
+      <c r="L294" s="23"/>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B295" s="12"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G295" s="23"/>
+      <c r="H295" s="23"/>
+      <c r="I295" s="23"/>
+      <c r="J295" s="23"/>
+      <c r="K295" s="23"/>
+      <c r="L295" s="23"/>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="15"/>
+      <c r="F296" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G296" s="23"/>
+      <c r="H296" s="23"/>
+      <c r="I296" s="23"/>
+      <c r="J296" s="23"/>
+      <c r="K296" s="23"/>
+      <c r="L296" s="23"/>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="15"/>
+      <c r="F297" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G297" s="23"/>
+      <c r="H297" s="23"/>
+      <c r="I297" s="23"/>
+      <c r="J297" s="23"/>
+      <c r="K297" s="23"/>
+      <c r="L297" s="23"/>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="16"/>
+      <c r="F298" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G298" s="23"/>
+      <c r="H298" s="23"/>
+      <c r="I298" s="23"/>
+      <c r="J298" s="23"/>
+      <c r="K298" s="23"/>
+      <c r="L298" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="C26:C48"/>
+    <mergeCell ref="C3:C25"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="D254:D258"/>
+    <mergeCell ref="D259:D263"/>
+    <mergeCell ref="D264:D268"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="B239:B298"/>
+    <mergeCell ref="C239:C268"/>
+    <mergeCell ref="C269:C298"/>
+    <mergeCell ref="D269:D273"/>
+    <mergeCell ref="D274:D278"/>
+    <mergeCell ref="D279:D283"/>
+    <mergeCell ref="D284:D288"/>
+    <mergeCell ref="D289:D293"/>
+    <mergeCell ref="D294:D298"/>
+    <mergeCell ref="D239:D243"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="B179:B238"/>
+    <mergeCell ref="C179:C208"/>
+    <mergeCell ref="C209:C238"/>
+    <mergeCell ref="D234:D238"/>
+    <mergeCell ref="C49:C78"/>
+    <mergeCell ref="C79:C108"/>
+    <mergeCell ref="B109:B168"/>
+    <mergeCell ref="C109:C138"/>
+    <mergeCell ref="C139:C168"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B49:B108"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="E169:E173"/>
+    <mergeCell ref="D26:D48"/>
+    <mergeCell ref="E26:E48"/>
+    <mergeCell ref="B3:B48"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D204:D208"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="D214:D218"/>
+    <mergeCell ref="D219:D223"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="D169:D173"/>
+    <mergeCell ref="D174:D178"/>
+    <mergeCell ref="D179:D183"/>
+    <mergeCell ref="D184:D188"/>
+    <mergeCell ref="D189:D193"/>
+    <mergeCell ref="D194:D198"/>
+    <mergeCell ref="D199:D203"/>
+    <mergeCell ref="B169:B178"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="D3:D25"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="D154:D158"/>
+    <mergeCell ref="D159:D163"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="D104:D108"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa8172b9163bf4b/Documents/CCT/DataAnalytics/8.Capstone/Capstone Github Repository/MSc-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4779" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8BFC9D-13F7-48F5-A372-F767BD48B28E}"/>
+  <xr:revisionPtr revIDLastSave="4800" documentId="8_{17ECA589-8393-4E8A-BEB3-681AA365B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543B97BE-A95D-42A7-8C62-D5605677E9FF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49574E81-5E76-4735-B155-75A7839EC357}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="121">
   <si>
     <t>Week</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Results</t>
-  </si>
-  <si>
-    <t>Model: Support Vector Machine</t>
   </si>
   <si>
     <t>Validate Model on Unseen Data and Generalisation</t>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>n_estimators</t>
-  </si>
-  <si>
-    <t>Default</t>
   </si>
   <si>
     <t>N/A</t>
@@ -844,9 +838,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915AD513-53F8-40F4-A354-CA3E5A7D20AA}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1339,7 +1333,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931071FD-A039-4A32-B87A-FB3F1F4290AD}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1533,84 +1527,75 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,54 +1624,54 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="36">
         <v>0.2</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1778,7 +1763,7 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1870,7 +1855,7 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1962,7 +1947,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2054,7 +2039,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2146,7 +2131,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10">
@@ -2193,7 +2178,7 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
         <v>30</v>
@@ -2217,13 +2202,13 @@
         <v>0.3</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2315,7 +2300,7 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2407,7 +2392,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2499,7 +2484,7 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -2591,7 +2576,7 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2683,7 +2668,7 @@
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10">
@@ -2730,7 +2715,7 @@
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
-      <c r="F47" s="39"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13">
         <v>30</v>
@@ -2750,19 +2735,19 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="36">
         <v>0.2</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -2854,7 +2839,7 @@
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
       <c r="F52" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -2946,7 +2931,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -3038,7 +3023,7 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -3130,7 +3115,7 @@
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -3222,7 +3207,7 @@
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
       <c r="F68" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10">
@@ -3269,7 +3254,7 @@
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
-      <c r="F70" s="39"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13">
         <v>30</v>
@@ -3293,13 +3278,13 @@
         <v>0.3</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -3391,7 +3376,7 @@
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -3483,7 +3468,7 @@
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -3575,7 +3560,7 @@
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
       <c r="F83" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -3667,7 +3652,7 @@
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
       <c r="F87" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -3759,7 +3744,7 @@
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10">
@@ -3806,7 +3791,7 @@
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
-      <c r="F93" s="39"/>
+      <c r="F93" s="43"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13">
         <v>30</v>
@@ -3826,7 +3811,7 @@
     </row>
     <row r="94" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="36">
         <v>0.2</v>
@@ -3835,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
@@ -3930,7 +3915,7 @@
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -4022,7 +4007,7 @@
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
       <c r="F102" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
@@ -4118,7 +4103,7 @@
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -4214,7 +4199,7 @@
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
       <c r="F110" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -4306,7 +4291,7 @@
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10">
@@ -4378,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F117" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -4473,7 +4458,7 @@
       <c r="D121" s="28"/>
       <c r="E121" s="28"/>
       <c r="F121" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -4565,7 +4550,7 @@
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
       <c r="F125" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -4661,7 +4646,7 @@
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
       <c r="F129" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -4757,7 +4742,7 @@
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
       <c r="F133" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
@@ -4849,7 +4834,7 @@
       <c r="D137" s="28"/>
       <c r="E137" s="28"/>
       <c r="F137" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="10">
@@ -4921,10 +4906,10 @@
         <v>4</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -5016,7 +5001,7 @@
       <c r="D144" s="28"/>
       <c r="E144" s="28"/>
       <c r="F144" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
@@ -5108,7 +5093,7 @@
       <c r="D148" s="28"/>
       <c r="E148" s="28"/>
       <c r="F148" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -5204,7 +5189,7 @@
       <c r="D152" s="28"/>
       <c r="E152" s="28"/>
       <c r="F152" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -5300,7 +5285,7 @@
       <c r="D156" s="28"/>
       <c r="E156" s="28"/>
       <c r="F156" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
@@ -5392,7 +5377,7 @@
       <c r="D160" s="28"/>
       <c r="E160" s="28"/>
       <c r="F160" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="10">
@@ -5466,10 +5451,10 @@
         <v>2</v>
       </c>
       <c r="E163" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F163" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
@@ -5561,7 +5546,7 @@
       <c r="D167" s="28"/>
       <c r="E167" s="28"/>
       <c r="F167" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -5653,7 +5638,7 @@
       <c r="D171" s="28"/>
       <c r="E171" s="28"/>
       <c r="F171" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -5745,7 +5730,7 @@
       <c r="D175" s="28"/>
       <c r="E175" s="28"/>
       <c r="F175" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -5837,7 +5822,7 @@
       <c r="D179" s="28"/>
       <c r="E179" s="28"/>
       <c r="F179" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
@@ -5929,7 +5914,7 @@
       <c r="D183" s="28"/>
       <c r="E183" s="28"/>
       <c r="F183" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="10">
@@ -6001,10 +5986,10 @@
         <v>3</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -6096,7 +6081,7 @@
       <c r="D190" s="28"/>
       <c r="E190" s="28"/>
       <c r="F190" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -6188,7 +6173,7 @@
       <c r="D194" s="28"/>
       <c r="E194" s="28"/>
       <c r="F194" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -6280,7 +6265,7 @@
       <c r="D198" s="28"/>
       <c r="E198" s="28"/>
       <c r="F198" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
@@ -6372,7 +6357,7 @@
       <c r="D202" s="28"/>
       <c r="E202" s="28"/>
       <c r="F202" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
@@ -6464,7 +6449,7 @@
       <c r="D206" s="28"/>
       <c r="E206" s="28"/>
       <c r="F206" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G206" s="10"/>
       <c r="H206" s="10">
@@ -6536,10 +6521,10 @@
         <v>4</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F209" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -6631,7 +6616,7 @@
       <c r="D213" s="28"/>
       <c r="E213" s="28"/>
       <c r="F213" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
@@ -6723,7 +6708,7 @@
       <c r="D217" s="28"/>
       <c r="E217" s="28"/>
       <c r="F217" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -6815,7 +6800,7 @@
       <c r="D221" s="28"/>
       <c r="E221" s="28"/>
       <c r="F221" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -6907,7 +6892,7 @@
       <c r="D225" s="28"/>
       <c r="E225" s="28"/>
       <c r="F225" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
@@ -6999,7 +6984,7 @@
       <c r="D229" s="28"/>
       <c r="E229" s="28"/>
       <c r="F229" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G229" s="10"/>
       <c r="H229" s="10">
@@ -7046,7 +7031,7 @@
       <c r="C231" s="37"/>
       <c r="D231" s="37"/>
       <c r="E231" s="37"/>
-      <c r="F231" s="39"/>
+      <c r="F231" s="43"/>
       <c r="G231" s="13"/>
       <c r="H231" s="13">
         <v>30</v>
@@ -7066,19 +7051,19 @@
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C232" s="36">
         <v>0.2</v>
       </c>
       <c r="D232" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E232" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F232" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G232" s="14"/>
       <c r="H232" s="14"/>
@@ -7170,7 +7155,7 @@
       <c r="D236" s="28"/>
       <c r="E236" s="28"/>
       <c r="F236" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G236" s="12"/>
       <c r="H236" s="12"/>
@@ -7261,10 +7246,10 @@
       <c r="C240" s="28"/>
       <c r="D240" s="28"/>
       <c r="E240" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F240" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20"/>
@@ -7360,7 +7345,7 @@
       <c r="D244" s="28"/>
       <c r="E244" s="28"/>
       <c r="F244" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G244" s="12"/>
       <c r="H244" s="12"/>
@@ -7455,10 +7440,10 @@
       <c r="C248" s="28"/>
       <c r="D248" s="28"/>
       <c r="E248" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F248" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20"/>
@@ -7554,7 +7539,7 @@
       <c r="D252" s="28"/>
       <c r="E252" s="28"/>
       <c r="F252" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
@@ -7648,13 +7633,13 @@
       <c r="B256" s="34"/>
       <c r="C256" s="28"/>
       <c r="D256" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20"/>
@@ -7750,7 +7735,7 @@
       <c r="D260" s="28"/>
       <c r="E260" s="28"/>
       <c r="F260" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G260" s="12"/>
       <c r="H260" s="12"/>
@@ -7845,10 +7830,10 @@
       <c r="C264" s="28"/>
       <c r="D264" s="28"/>
       <c r="E264" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F264" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20"/>
@@ -7942,7 +7927,7 @@
       <c r="D268" s="28"/>
       <c r="E268" s="28"/>
       <c r="F268" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G268" s="12"/>
       <c r="H268" s="12"/>
@@ -8037,10 +8022,10 @@
       <c r="C272" s="28"/>
       <c r="D272" s="28"/>
       <c r="E272" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F272" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20"/>
@@ -8136,7 +8121,7 @@
       <c r="D276" s="28"/>
       <c r="E276" s="28"/>
       <c r="F276" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G276" s="12"/>
       <c r="H276" s="12"/>
@@ -8230,13 +8215,13 @@
       <c r="B280" s="34"/>
       <c r="C280" s="28"/>
       <c r="D280" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E280" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20"/>
@@ -8330,7 +8315,7 @@
       <c r="D284" s="28"/>
       <c r="E284" s="28"/>
       <c r="F284" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G284" s="12"/>
       <c r="H284" s="12"/>
@@ -8421,10 +8406,10 @@
       <c r="C288" s="28"/>
       <c r="D288" s="28"/>
       <c r="E288" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F288" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="20"/>
@@ -8516,7 +8501,7 @@
       <c r="D292" s="28"/>
       <c r="E292" s="28"/>
       <c r="F292" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
@@ -8606,13 +8591,13 @@
       <c r="B296" s="34"/>
       <c r="C296" s="28"/>
       <c r="D296" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E296" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F296" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G296" s="20"/>
       <c r="H296" s="20"/>
@@ -8704,7 +8689,7 @@
       <c r="D300" s="28"/>
       <c r="E300" s="28"/>
       <c r="F300" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G300" s="12"/>
       <c r="H300" s="12"/>
@@ -8791,8 +8776,8 @@
       </c>
     </row>
     <row r="304" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="40" t="s">
-        <v>87</v>
+      <c r="B304" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="C304" s="36">
         <v>0.2</v>
@@ -8801,10 +8786,10 @@
         <v>2</v>
       </c>
       <c r="E304" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F304" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G304" s="14"/>
       <c r="H304" s="14"/>
@@ -8822,7 +8807,7 @@
       </c>
     </row>
     <row r="305" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B305" s="41"/>
+      <c r="B305" s="40"/>
       <c r="C305" s="28"/>
       <c r="D305" s="28"/>
       <c r="E305" s="28"/>
@@ -8845,7 +8830,7 @@
       </c>
     </row>
     <row r="306" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B306" s="41"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="28"/>
       <c r="D306" s="28"/>
       <c r="E306" s="28"/>
@@ -8868,7 +8853,7 @@
       </c>
     </row>
     <row r="307" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B307" s="41"/>
+      <c r="B307" s="40"/>
       <c r="C307" s="28"/>
       <c r="D307" s="28"/>
       <c r="E307" s="28"/>
@@ -8891,12 +8876,12 @@
       </c>
     </row>
     <row r="308" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="41"/>
+      <c r="B308" s="40"/>
       <c r="C308" s="28"/>
       <c r="D308" s="28"/>
       <c r="E308" s="28"/>
       <c r="F308" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G308" s="12"/>
       <c r="H308" s="12"/>
@@ -8914,7 +8899,7 @@
       </c>
     </row>
     <row r="309" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B309" s="41"/>
+      <c r="B309" s="40"/>
       <c r="C309" s="28"/>
       <c r="D309" s="28"/>
       <c r="E309" s="28"/>
@@ -8937,7 +8922,7 @@
       </c>
     </row>
     <row r="310" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B310" s="41"/>
+      <c r="B310" s="40"/>
       <c r="C310" s="28"/>
       <c r="D310" s="28"/>
       <c r="E310" s="28"/>
@@ -8960,7 +8945,7 @@
       </c>
     </row>
     <row r="311" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B311" s="41"/>
+      <c r="B311" s="40"/>
       <c r="C311" s="28"/>
       <c r="D311" s="28"/>
       <c r="E311" s="28"/>
@@ -8983,12 +8968,12 @@
       </c>
     </row>
     <row r="312" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="41"/>
+      <c r="B312" s="40"/>
       <c r="C312" s="28"/>
       <c r="D312" s="28"/>
       <c r="E312" s="28"/>
       <c r="F312" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G312" s="12"/>
       <c r="H312" s="12"/>
@@ -9007,7 +8992,7 @@
       <c r="N312" s="25"/>
     </row>
     <row r="313" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B313" s="41"/>
+      <c r="B313" s="40"/>
       <c r="C313" s="28"/>
       <c r="D313" s="28"/>
       <c r="E313" s="28"/>
@@ -9031,7 +9016,7 @@
       <c r="N313" s="25"/>
     </row>
     <row r="314" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B314" s="41"/>
+      <c r="B314" s="40"/>
       <c r="C314" s="28"/>
       <c r="D314" s="28"/>
       <c r="E314" s="28"/>
@@ -9055,7 +9040,7 @@
       <c r="N314" s="25"/>
     </row>
     <row r="315" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B315" s="41"/>
+      <c r="B315" s="40"/>
       <c r="C315" s="28"/>
       <c r="D315" s="28"/>
       <c r="E315" s="28"/>
@@ -9079,12 +9064,12 @@
       <c r="N315" s="25"/>
     </row>
     <row r="316" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="41"/>
+      <c r="B316" s="40"/>
       <c r="C316" s="28"/>
       <c r="D316" s="28"/>
       <c r="E316" s="28"/>
       <c r="F316" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G316" s="12"/>
       <c r="H316" s="12"/>
@@ -9103,7 +9088,7 @@
       <c r="N316" s="25"/>
     </row>
     <row r="317" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B317" s="41"/>
+      <c r="B317" s="40"/>
       <c r="C317" s="28"/>
       <c r="D317" s="28"/>
       <c r="E317" s="28"/>
@@ -9127,7 +9112,7 @@
       <c r="N317" s="25"/>
     </row>
     <row r="318" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B318" s="41"/>
+      <c r="B318" s="40"/>
       <c r="C318" s="28"/>
       <c r="D318" s="28"/>
       <c r="E318" s="28"/>
@@ -9151,7 +9136,7 @@
       <c r="N318" s="25"/>
     </row>
     <row r="319" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B319" s="41"/>
+      <c r="B319" s="40"/>
       <c r="C319" s="28"/>
       <c r="D319" s="28"/>
       <c r="E319" s="28"/>
@@ -9175,12 +9160,12 @@
       <c r="N319" s="25"/>
     </row>
     <row r="320" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="41"/>
+      <c r="B320" s="40"/>
       <c r="C320" s="28"/>
       <c r="D320" s="28"/>
       <c r="E320" s="28"/>
       <c r="F320" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G320" s="10"/>
       <c r="H320" s="10"/>
@@ -9198,7 +9183,7 @@
       </c>
     </row>
     <row r="321" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B321" s="41"/>
+      <c r="B321" s="40"/>
       <c r="C321" s="28"/>
       <c r="D321" s="28"/>
       <c r="E321" s="28"/>
@@ -9221,7 +9206,7 @@
       </c>
     </row>
     <row r="322" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B322" s="41"/>
+      <c r="B322" s="40"/>
       <c r="C322" s="28"/>
       <c r="D322" s="28"/>
       <c r="E322" s="28"/>
@@ -9244,7 +9229,7 @@
       </c>
     </row>
     <row r="323" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B323" s="41"/>
+      <c r="B323" s="40"/>
       <c r="C323" s="28"/>
       <c r="D323" s="28"/>
       <c r="E323" s="28"/>
@@ -9267,12 +9252,12 @@
       </c>
     </row>
     <row r="324" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="41"/>
+      <c r="B324" s="40"/>
       <c r="C324" s="28"/>
       <c r="D324" s="28"/>
       <c r="E324" s="28"/>
       <c r="F324" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G324" s="10"/>
       <c r="H324" s="10">
@@ -9292,7 +9277,7 @@
       </c>
     </row>
     <row r="325" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B325" s="41"/>
+      <c r="B325" s="40"/>
       <c r="C325" s="28"/>
       <c r="D325" s="28"/>
       <c r="E325" s="28"/>
@@ -9315,7 +9300,7 @@
       </c>
     </row>
     <row r="326" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B326" s="41"/>
+      <c r="B326" s="40"/>
       <c r="C326" s="28"/>
       <c r="D326" s="29"/>
       <c r="E326" s="37"/>
@@ -9338,16 +9323,16 @@
       </c>
     </row>
     <row r="327" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="41"/>
+      <c r="B327" s="40"/>
       <c r="C327" s="28"/>
       <c r="D327" s="27">
         <v>3</v>
       </c>
       <c r="E327" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F327" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G327" s="12"/>
       <c r="H327" s="12"/>
@@ -9365,7 +9350,7 @@
       </c>
     </row>
     <row r="328" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B328" s="41"/>
+      <c r="B328" s="40"/>
       <c r="C328" s="28"/>
       <c r="D328" s="28"/>
       <c r="E328" s="28"/>
@@ -9388,7 +9373,7 @@
       </c>
     </row>
     <row r="329" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B329" s="41"/>
+      <c r="B329" s="40"/>
       <c r="C329" s="28"/>
       <c r="D329" s="28"/>
       <c r="E329" s="28"/>
@@ -9411,7 +9396,7 @@
       </c>
     </row>
     <row r="330" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B330" s="41"/>
+      <c r="B330" s="40"/>
       <c r="C330" s="28"/>
       <c r="D330" s="28"/>
       <c r="E330" s="28"/>
@@ -9434,12 +9419,12 @@
       </c>
     </row>
     <row r="331" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="41"/>
+      <c r="B331" s="40"/>
       <c r="C331" s="28"/>
       <c r="D331" s="28"/>
       <c r="E331" s="28"/>
       <c r="F331" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G331" s="12"/>
       <c r="H331" s="12"/>
@@ -9457,7 +9442,7 @@
       </c>
     </row>
     <row r="332" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B332" s="41"/>
+      <c r="B332" s="40"/>
       <c r="C332" s="28"/>
       <c r="D332" s="28"/>
       <c r="E332" s="28"/>
@@ -9480,7 +9465,7 @@
       </c>
     </row>
     <row r="333" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B333" s="41"/>
+      <c r="B333" s="40"/>
       <c r="C333" s="28"/>
       <c r="D333" s="28"/>
       <c r="E333" s="28"/>
@@ -9503,7 +9488,7 @@
       </c>
     </row>
     <row r="334" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B334" s="41"/>
+      <c r="B334" s="40"/>
       <c r="C334" s="28"/>
       <c r="D334" s="28"/>
       <c r="E334" s="28"/>
@@ -9526,12 +9511,12 @@
       </c>
     </row>
     <row r="335" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B335" s="41"/>
+      <c r="B335" s="40"/>
       <c r="C335" s="28"/>
       <c r="D335" s="28"/>
       <c r="E335" s="28"/>
       <c r="F335" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G335" s="12"/>
       <c r="H335" s="12"/>
@@ -9550,7 +9535,7 @@
       <c r="N335" s="25"/>
     </row>
     <row r="336" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B336" s="41"/>
+      <c r="B336" s="40"/>
       <c r="C336" s="28"/>
       <c r="D336" s="28"/>
       <c r="E336" s="28"/>
@@ -9574,7 +9559,7 @@
       <c r="N336" s="25"/>
     </row>
     <row r="337" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B337" s="41"/>
+      <c r="B337" s="40"/>
       <c r="C337" s="28"/>
       <c r="D337" s="28"/>
       <c r="E337" s="28"/>
@@ -9598,7 +9583,7 @@
       <c r="N337" s="25"/>
     </row>
     <row r="338" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B338" s="41"/>
+      <c r="B338" s="40"/>
       <c r="C338" s="28"/>
       <c r="D338" s="28"/>
       <c r="E338" s="28"/>
@@ -9622,12 +9607,12 @@
       <c r="N338" s="25"/>
     </row>
     <row r="339" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B339" s="41"/>
+      <c r="B339" s="40"/>
       <c r="C339" s="28"/>
       <c r="D339" s="28"/>
       <c r="E339" s="28"/>
       <c r="F339" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G339" s="12"/>
       <c r="H339" s="12"/>
@@ -9646,7 +9631,7 @@
       <c r="N339" s="25"/>
     </row>
     <row r="340" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B340" s="41"/>
+      <c r="B340" s="40"/>
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
       <c r="E340" s="28"/>
@@ -9670,7 +9655,7 @@
       <c r="N340" s="25"/>
     </row>
     <row r="341" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B341" s="41"/>
+      <c r="B341" s="40"/>
       <c r="C341" s="28"/>
       <c r="D341" s="28"/>
       <c r="E341" s="28"/>
@@ -9694,7 +9679,7 @@
       <c r="N341" s="25"/>
     </row>
     <row r="342" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B342" s="41"/>
+      <c r="B342" s="40"/>
       <c r="C342" s="28"/>
       <c r="D342" s="28"/>
       <c r="E342" s="28"/>
@@ -9718,12 +9703,12 @@
       <c r="N342" s="25"/>
     </row>
     <row r="343" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B343" s="41"/>
+      <c r="B343" s="40"/>
       <c r="C343" s="28"/>
       <c r="D343" s="28"/>
       <c r="E343" s="28"/>
       <c r="F343" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G343" s="10"/>
       <c r="H343" s="10"/>
@@ -9741,7 +9726,7 @@
       </c>
     </row>
     <row r="344" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B344" s="41"/>
+      <c r="B344" s="40"/>
       <c r="C344" s="28"/>
       <c r="D344" s="28"/>
       <c r="E344" s="28"/>
@@ -9764,7 +9749,7 @@
       </c>
     </row>
     <row r="345" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B345" s="41"/>
+      <c r="B345" s="40"/>
       <c r="C345" s="28"/>
       <c r="D345" s="28"/>
       <c r="E345" s="28"/>
@@ -9787,7 +9772,7 @@
       </c>
     </row>
     <row r="346" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B346" s="41"/>
+      <c r="B346" s="40"/>
       <c r="C346" s="28"/>
       <c r="D346" s="28"/>
       <c r="E346" s="28"/>
@@ -9810,12 +9795,12 @@
       </c>
     </row>
     <row r="347" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="41"/>
+      <c r="B347" s="40"/>
       <c r="C347" s="28"/>
       <c r="D347" s="28"/>
       <c r="E347" s="28"/>
       <c r="F347" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G347" s="10"/>
       <c r="H347" s="10">
@@ -9835,7 +9820,7 @@
       </c>
     </row>
     <row r="348" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B348" s="41"/>
+      <c r="B348" s="40"/>
       <c r="C348" s="28"/>
       <c r="D348" s="28"/>
       <c r="E348" s="28"/>
@@ -9858,7 +9843,7 @@
       </c>
     </row>
     <row r="349" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="41"/>
+      <c r="B349" s="40"/>
       <c r="C349" s="28"/>
       <c r="D349" s="29"/>
       <c r="E349" s="37"/>
@@ -9881,16 +9866,16 @@
       </c>
     </row>
     <row r="350" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B350" s="41"/>
+      <c r="B350" s="40"/>
       <c r="C350" s="28"/>
       <c r="D350" s="27">
         <v>4</v>
       </c>
       <c r="E350" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F350" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -9908,7 +9893,7 @@
       </c>
     </row>
     <row r="351" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B351" s="41"/>
+      <c r="B351" s="40"/>
       <c r="C351" s="28"/>
       <c r="D351" s="28"/>
       <c r="E351" s="28"/>
@@ -9931,7 +9916,7 @@
       </c>
     </row>
     <row r="352" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B352" s="41"/>
+      <c r="B352" s="40"/>
       <c r="C352" s="28"/>
       <c r="D352" s="28"/>
       <c r="E352" s="28"/>
@@ -9954,7 +9939,7 @@
       </c>
     </row>
     <row r="353" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B353" s="41"/>
+      <c r="B353" s="40"/>
       <c r="C353" s="28"/>
       <c r="D353" s="28"/>
       <c r="E353" s="28"/>
@@ -9977,12 +9962,12 @@
       </c>
     </row>
     <row r="354" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="41"/>
+      <c r="B354" s="40"/>
       <c r="C354" s="28"/>
       <c r="D354" s="28"/>
       <c r="E354" s="28"/>
       <c r="F354" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G354" s="12"/>
       <c r="H354" s="12"/>
@@ -10000,7 +9985,7 @@
       </c>
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B355" s="41"/>
+      <c r="B355" s="40"/>
       <c r="C355" s="28"/>
       <c r="D355" s="28"/>
       <c r="E355" s="28"/>
@@ -10023,7 +10008,7 @@
       </c>
     </row>
     <row r="356" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B356" s="41"/>
+      <c r="B356" s="40"/>
       <c r="C356" s="28"/>
       <c r="D356" s="28"/>
       <c r="E356" s="28"/>
@@ -10046,7 +10031,7 @@
       </c>
     </row>
     <row r="357" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B357" s="41"/>
+      <c r="B357" s="40"/>
       <c r="C357" s="28"/>
       <c r="D357" s="28"/>
       <c r="E357" s="28"/>
@@ -10069,12 +10054,12 @@
       </c>
     </row>
     <row r="358" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="41"/>
+      <c r="B358" s="40"/>
       <c r="C358" s="28"/>
       <c r="D358" s="28"/>
       <c r="E358" s="28"/>
       <c r="F358" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G358" s="12"/>
       <c r="H358" s="12"/>
@@ -10092,7 +10077,7 @@
       </c>
     </row>
     <row r="359" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B359" s="41"/>
+      <c r="B359" s="40"/>
       <c r="C359" s="28"/>
       <c r="D359" s="28"/>
       <c r="E359" s="28"/>
@@ -10115,7 +10100,7 @@
       </c>
     </row>
     <row r="360" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B360" s="41"/>
+      <c r="B360" s="40"/>
       <c r="C360" s="28"/>
       <c r="D360" s="28"/>
       <c r="E360" s="28"/>
@@ -10138,7 +10123,7 @@
       </c>
     </row>
     <row r="361" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B361" s="41"/>
+      <c r="B361" s="40"/>
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
       <c r="E361" s="28"/>
@@ -10161,12 +10146,12 @@
       </c>
     </row>
     <row r="362" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="41"/>
+      <c r="B362" s="40"/>
       <c r="C362" s="28"/>
       <c r="D362" s="28"/>
       <c r="E362" s="28"/>
       <c r="F362" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G362" s="12"/>
       <c r="H362" s="12"/>
@@ -10184,7 +10169,7 @@
       </c>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B363" s="41"/>
+      <c r="B363" s="40"/>
       <c r="C363" s="28"/>
       <c r="D363" s="28"/>
       <c r="E363" s="28"/>
@@ -10207,7 +10192,7 @@
       </c>
     </row>
     <row r="364" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B364" s="41"/>
+      <c r="B364" s="40"/>
       <c r="C364" s="28"/>
       <c r="D364" s="28"/>
       <c r="E364" s="28"/>
@@ -10230,7 +10215,7 @@
       </c>
     </row>
     <row r="365" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B365" s="41"/>
+      <c r="B365" s="40"/>
       <c r="C365" s="28"/>
       <c r="D365" s="28"/>
       <c r="E365" s="28"/>
@@ -10253,12 +10238,12 @@
       </c>
     </row>
     <row r="366" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="41"/>
+      <c r="B366" s="40"/>
       <c r="C366" s="28"/>
       <c r="D366" s="28"/>
       <c r="E366" s="28"/>
       <c r="F366" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G366" s="10"/>
       <c r="H366" s="10"/>
@@ -10276,7 +10261,7 @@
       </c>
     </row>
     <row r="367" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B367" s="41"/>
+      <c r="B367" s="40"/>
       <c r="C367" s="28"/>
       <c r="D367" s="28"/>
       <c r="E367" s="28"/>
@@ -10299,7 +10284,7 @@
       </c>
     </row>
     <row r="368" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B368" s="41"/>
+      <c r="B368" s="40"/>
       <c r="C368" s="28"/>
       <c r="D368" s="28"/>
       <c r="E368" s="28"/>
@@ -10322,7 +10307,7 @@
       </c>
     </row>
     <row r="369" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B369" s="41"/>
+      <c r="B369" s="40"/>
       <c r="C369" s="28"/>
       <c r="D369" s="28"/>
       <c r="E369" s="28"/>
@@ -10345,12 +10330,12 @@
       </c>
     </row>
     <row r="370" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="41"/>
+      <c r="B370" s="40"/>
       <c r="C370" s="28"/>
       <c r="D370" s="28"/>
       <c r="E370" s="28"/>
       <c r="F370" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G370" s="10"/>
       <c r="H370" s="10">
@@ -10370,7 +10355,7 @@
       </c>
     </row>
     <row r="371" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B371" s="41"/>
+      <c r="B371" s="40"/>
       <c r="C371" s="28"/>
       <c r="D371" s="28"/>
       <c r="E371" s="28"/>
@@ -10393,7 +10378,7 @@
       </c>
     </row>
     <row r="372" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B372" s="41"/>
+      <c r="B372" s="40"/>
       <c r="C372" s="28"/>
       <c r="D372" s="29"/>
       <c r="E372" s="37"/>
@@ -10416,16 +10401,16 @@
       </c>
     </row>
     <row r="373" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="41"/>
+      <c r="B373" s="40"/>
       <c r="C373" s="28"/>
       <c r="D373" s="27">
         <v>5</v>
       </c>
       <c r="E373" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F373" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G373" s="14"/>
       <c r="H373" s="14"/>
@@ -10443,7 +10428,7 @@
       </c>
     </row>
     <row r="374" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B374" s="41"/>
+      <c r="B374" s="40"/>
       <c r="C374" s="28"/>
       <c r="D374" s="28"/>
       <c r="E374" s="28"/>
@@ -10466,7 +10451,7 @@
       </c>
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B375" s="41"/>
+      <c r="B375" s="40"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
       <c r="E375" s="28"/>
@@ -10489,7 +10474,7 @@
       </c>
     </row>
     <row r="376" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B376" s="41"/>
+      <c r="B376" s="40"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
       <c r="E376" s="28"/>
@@ -10512,12 +10497,12 @@
       </c>
     </row>
     <row r="377" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="41"/>
+      <c r="B377" s="40"/>
       <c r="C377" s="28"/>
       <c r="D377" s="28"/>
       <c r="E377" s="28"/>
       <c r="F377" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G377" s="12"/>
       <c r="H377" s="12"/>
@@ -10535,7 +10520,7 @@
       </c>
     </row>
     <row r="378" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B378" s="41"/>
+      <c r="B378" s="40"/>
       <c r="C378" s="28"/>
       <c r="D378" s="28"/>
       <c r="E378" s="28"/>
@@ -10558,7 +10543,7 @@
       </c>
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B379" s="41"/>
+      <c r="B379" s="40"/>
       <c r="C379" s="28"/>
       <c r="D379" s="28"/>
       <c r="E379" s="28"/>
@@ -10581,7 +10566,7 @@
       </c>
     </row>
     <row r="380" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B380" s="41"/>
+      <c r="B380" s="40"/>
       <c r="C380" s="28"/>
       <c r="D380" s="28"/>
       <c r="E380" s="28"/>
@@ -10604,12 +10589,12 @@
       </c>
     </row>
     <row r="381" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="41"/>
+      <c r="B381" s="40"/>
       <c r="C381" s="28"/>
       <c r="D381" s="28"/>
       <c r="E381" s="28"/>
       <c r="F381" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G381" s="12"/>
       <c r="H381" s="12"/>
@@ -10627,7 +10612,7 @@
       </c>
     </row>
     <row r="382" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B382" s="41"/>
+      <c r="B382" s="40"/>
       <c r="C382" s="28"/>
       <c r="D382" s="28"/>
       <c r="E382" s="28"/>
@@ -10650,7 +10635,7 @@
       </c>
     </row>
     <row r="383" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B383" s="41"/>
+      <c r="B383" s="40"/>
       <c r="C383" s="28"/>
       <c r="D383" s="28"/>
       <c r="E383" s="28"/>
@@ -10673,7 +10658,7 @@
       </c>
     </row>
     <row r="384" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B384" s="41"/>
+      <c r="B384" s="40"/>
       <c r="C384" s="28"/>
       <c r="D384" s="28"/>
       <c r="E384" s="28"/>
@@ -10696,12 +10681,12 @@
       </c>
     </row>
     <row r="385" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B385" s="41"/>
+      <c r="B385" s="40"/>
       <c r="C385" s="28"/>
       <c r="D385" s="28"/>
       <c r="E385" s="28"/>
       <c r="F385" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G385" s="12"/>
       <c r="H385" s="12"/>
@@ -10719,7 +10704,7 @@
       </c>
     </row>
     <row r="386" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B386" s="41"/>
+      <c r="B386" s="40"/>
       <c r="C386" s="28"/>
       <c r="D386" s="28"/>
       <c r="E386" s="28"/>
@@ -10742,7 +10727,7 @@
       </c>
     </row>
     <row r="387" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B387" s="41"/>
+      <c r="B387" s="40"/>
       <c r="C387" s="28"/>
       <c r="D387" s="28"/>
       <c r="E387" s="28"/>
@@ -10765,7 +10750,7 @@
       </c>
     </row>
     <row r="388" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B388" s="41"/>
+      <c r="B388" s="40"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
       <c r="E388" s="28"/>
@@ -10788,12 +10773,12 @@
       </c>
     </row>
     <row r="389" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="41"/>
+      <c r="B389" s="40"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="28"/>
       <c r="F389" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G389" s="10"/>
       <c r="H389" s="10"/>
@@ -10811,7 +10796,7 @@
       </c>
     </row>
     <row r="390" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B390" s="41"/>
+      <c r="B390" s="40"/>
       <c r="C390" s="28"/>
       <c r="D390" s="28"/>
       <c r="E390" s="28"/>
@@ -10834,7 +10819,7 @@
       </c>
     </row>
     <row r="391" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B391" s="41"/>
+      <c r="B391" s="40"/>
       <c r="C391" s="28"/>
       <c r="D391" s="28"/>
       <c r="E391" s="28"/>
@@ -10857,7 +10842,7 @@
       </c>
     </row>
     <row r="392" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B392" s="41"/>
+      <c r="B392" s="40"/>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
       <c r="E392" s="28"/>
@@ -10880,12 +10865,12 @@
       </c>
     </row>
     <row r="393" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="41"/>
+      <c r="B393" s="40"/>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
       <c r="E393" s="28"/>
       <c r="F393" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G393" s="10"/>
       <c r="H393" s="10">
@@ -10905,7 +10890,7 @@
       </c>
     </row>
     <row r="394" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B394" s="41"/>
+      <c r="B394" s="40"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="28"/>
@@ -10928,7 +10913,7 @@
       </c>
     </row>
     <row r="395" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="41"/>
+      <c r="B395" s="40"/>
       <c r="C395" s="28"/>
       <c r="D395" s="29"/>
       <c r="E395" s="37"/>
@@ -10951,16 +10936,16 @@
       </c>
     </row>
     <row r="396" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="41"/>
+      <c r="B396" s="40"/>
       <c r="C396" s="28"/>
       <c r="D396" s="27">
         <v>6</v>
       </c>
       <c r="E396" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F396" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G396" s="12"/>
       <c r="H396" s="12"/>
@@ -10978,7 +10963,7 @@
       </c>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B397" s="41"/>
+      <c r="B397" s="40"/>
       <c r="C397" s="28"/>
       <c r="D397" s="28"/>
       <c r="E397" s="28"/>
@@ -11001,7 +10986,7 @@
       </c>
     </row>
     <row r="398" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B398" s="41"/>
+      <c r="B398" s="40"/>
       <c r="C398" s="28"/>
       <c r="D398" s="28"/>
       <c r="E398" s="28"/>
@@ -11024,7 +11009,7 @@
       </c>
     </row>
     <row r="399" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B399" s="41"/>
+      <c r="B399" s="40"/>
       <c r="C399" s="28"/>
       <c r="D399" s="28"/>
       <c r="E399" s="28"/>
@@ -11047,12 +11032,12 @@
       </c>
     </row>
     <row r="400" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B400" s="41"/>
+      <c r="B400" s="40"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="28"/>
       <c r="F400" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G400" s="12"/>
       <c r="H400" s="12"/>
@@ -11070,7 +11055,7 @@
       </c>
     </row>
     <row r="401" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B401" s="41"/>
+      <c r="B401" s="40"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="28"/>
@@ -11093,7 +11078,7 @@
       </c>
     </row>
     <row r="402" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B402" s="41"/>
+      <c r="B402" s="40"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="28"/>
@@ -11116,7 +11101,7 @@
       </c>
     </row>
     <row r="403" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B403" s="41"/>
+      <c r="B403" s="40"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
       <c r="E403" s="28"/>
@@ -11139,12 +11124,12 @@
       </c>
     </row>
     <row r="404" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B404" s="41"/>
+      <c r="B404" s="40"/>
       <c r="C404" s="28"/>
       <c r="D404" s="28"/>
       <c r="E404" s="28"/>
       <c r="F404" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G404" s="12"/>
       <c r="H404" s="12"/>
@@ -11162,7 +11147,7 @@
       </c>
     </row>
     <row r="405" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B405" s="41"/>
+      <c r="B405" s="40"/>
       <c r="C405" s="28"/>
       <c r="D405" s="28"/>
       <c r="E405" s="28"/>
@@ -11185,7 +11170,7 @@
       </c>
     </row>
     <row r="406" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B406" s="41"/>
+      <c r="B406" s="40"/>
       <c r="C406" s="28"/>
       <c r="D406" s="28"/>
       <c r="E406" s="28"/>
@@ -11208,7 +11193,7 @@
       </c>
     </row>
     <row r="407" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B407" s="41"/>
+      <c r="B407" s="40"/>
       <c r="C407" s="28"/>
       <c r="D407" s="28"/>
       <c r="E407" s="28"/>
@@ -11231,12 +11216,12 @@
       </c>
     </row>
     <row r="408" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="41"/>
+      <c r="B408" s="40"/>
       <c r="C408" s="28"/>
       <c r="D408" s="28"/>
       <c r="E408" s="28"/>
       <c r="F408" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G408" s="12"/>
       <c r="H408" s="12"/>
@@ -11254,7 +11239,7 @@
       </c>
     </row>
     <row r="409" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B409" s="41"/>
+      <c r="B409" s="40"/>
       <c r="C409" s="28"/>
       <c r="D409" s="28"/>
       <c r="E409" s="28"/>
@@ -11277,7 +11262,7 @@
       </c>
     </row>
     <row r="410" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B410" s="41"/>
+      <c r="B410" s="40"/>
       <c r="C410" s="28"/>
       <c r="D410" s="28"/>
       <c r="E410" s="28"/>
@@ -11300,7 +11285,7 @@
       </c>
     </row>
     <row r="411" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B411" s="41"/>
+      <c r="B411" s="40"/>
       <c r="C411" s="28"/>
       <c r="D411" s="28"/>
       <c r="E411" s="28"/>
@@ -11323,12 +11308,12 @@
       </c>
     </row>
     <row r="412" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B412" s="41"/>
+      <c r="B412" s="40"/>
       <c r="C412" s="28"/>
       <c r="D412" s="28"/>
       <c r="E412" s="28"/>
       <c r="F412" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G412" s="10"/>
       <c r="H412" s="10"/>
@@ -11346,7 +11331,7 @@
       </c>
     </row>
     <row r="413" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B413" s="41"/>
+      <c r="B413" s="40"/>
       <c r="C413" s="28"/>
       <c r="D413" s="28"/>
       <c r="E413" s="28"/>
@@ -11369,7 +11354,7 @@
       </c>
     </row>
     <row r="414" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B414" s="41"/>
+      <c r="B414" s="40"/>
       <c r="C414" s="28"/>
       <c r="D414" s="28"/>
       <c r="E414" s="28"/>
@@ -11392,7 +11377,7 @@
       </c>
     </row>
     <row r="415" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B415" s="41"/>
+      <c r="B415" s="40"/>
       <c r="C415" s="28"/>
       <c r="D415" s="28"/>
       <c r="E415" s="28"/>
@@ -11415,12 +11400,12 @@
       </c>
     </row>
     <row r="416" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B416" s="41"/>
+      <c r="B416" s="40"/>
       <c r="C416" s="28"/>
       <c r="D416" s="28"/>
       <c r="E416" s="28"/>
       <c r="F416" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G416" s="10"/>
       <c r="H416" s="10">
@@ -11440,7 +11425,7 @@
       </c>
     </row>
     <row r="417" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B417" s="41"/>
+      <c r="B417" s="40"/>
       <c r="C417" s="28"/>
       <c r="D417" s="28"/>
       <c r="E417" s="28"/>
@@ -11463,7 +11448,7 @@
       </c>
     </row>
     <row r="418" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B418" s="41"/>
+      <c r="B418" s="40"/>
       <c r="C418" s="28"/>
       <c r="D418" s="29"/>
       <c r="E418" s="37"/>
@@ -11486,16 +11471,16 @@
       </c>
     </row>
     <row r="419" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B419" s="41"/>
+      <c r="B419" s="40"/>
       <c r="C419" s="28"/>
       <c r="D419" s="27">
         <v>7</v>
       </c>
       <c r="E419" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F419" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G419" s="12"/>
       <c r="H419" s="12"/>
@@ -11513,7 +11498,7 @@
       </c>
     </row>
     <row r="420" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B420" s="41"/>
+      <c r="B420" s="40"/>
       <c r="C420" s="28"/>
       <c r="D420" s="28"/>
       <c r="E420" s="28"/>
@@ -11536,7 +11521,7 @@
       </c>
     </row>
     <row r="421" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B421" s="41"/>
+      <c r="B421" s="40"/>
       <c r="C421" s="28"/>
       <c r="D421" s="28"/>
       <c r="E421" s="28"/>
@@ -11559,7 +11544,7 @@
       </c>
     </row>
     <row r="422" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B422" s="41"/>
+      <c r="B422" s="40"/>
       <c r="C422" s="28"/>
       <c r="D422" s="28"/>
       <c r="E422" s="28"/>
@@ -11582,12 +11567,12 @@
       </c>
     </row>
     <row r="423" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="41"/>
+      <c r="B423" s="40"/>
       <c r="C423" s="28"/>
       <c r="D423" s="28"/>
       <c r="E423" s="28"/>
       <c r="F423" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G423" s="12"/>
       <c r="H423" s="12"/>
@@ -11605,7 +11590,7 @@
       </c>
     </row>
     <row r="424" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B424" s="41"/>
+      <c r="B424" s="40"/>
       <c r="C424" s="28"/>
       <c r="D424" s="28"/>
       <c r="E424" s="28"/>
@@ -11628,7 +11613,7 @@
       </c>
     </row>
     <row r="425" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B425" s="41"/>
+      <c r="B425" s="40"/>
       <c r="C425" s="28"/>
       <c r="D425" s="28"/>
       <c r="E425" s="28"/>
@@ -11651,7 +11636,7 @@
       </c>
     </row>
     <row r="426" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B426" s="41"/>
+      <c r="B426" s="40"/>
       <c r="C426" s="28"/>
       <c r="D426" s="28"/>
       <c r="E426" s="28"/>
@@ -11674,12 +11659,12 @@
       </c>
     </row>
     <row r="427" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B427" s="41"/>
+      <c r="B427" s="40"/>
       <c r="C427" s="28"/>
       <c r="D427" s="28"/>
       <c r="E427" s="28"/>
       <c r="F427" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G427" s="12"/>
       <c r="H427" s="12"/>
@@ -11697,7 +11682,7 @@
       </c>
     </row>
     <row r="428" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B428" s="41"/>
+      <c r="B428" s="40"/>
       <c r="C428" s="28"/>
       <c r="D428" s="28"/>
       <c r="E428" s="28"/>
@@ -11720,7 +11705,7 @@
       </c>
     </row>
     <row r="429" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B429" s="41"/>
+      <c r="B429" s="40"/>
       <c r="C429" s="28"/>
       <c r="D429" s="28"/>
       <c r="E429" s="28"/>
@@ -11743,7 +11728,7 @@
       </c>
     </row>
     <row r="430" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B430" s="41"/>
+      <c r="B430" s="40"/>
       <c r="C430" s="28"/>
       <c r="D430" s="28"/>
       <c r="E430" s="28"/>
@@ -11766,12 +11751,12 @@
       </c>
     </row>
     <row r="431" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B431" s="41"/>
+      <c r="B431" s="40"/>
       <c r="C431" s="28"/>
       <c r="D431" s="28"/>
       <c r="E431" s="28"/>
       <c r="F431" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G431" s="12"/>
       <c r="H431" s="12"/>
@@ -11789,7 +11774,7 @@
       </c>
     </row>
     <row r="432" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B432" s="41"/>
+      <c r="B432" s="40"/>
       <c r="C432" s="28"/>
       <c r="D432" s="28"/>
       <c r="E432" s="28"/>
@@ -11812,7 +11797,7 @@
       </c>
     </row>
     <row r="433" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B433" s="41"/>
+      <c r="B433" s="40"/>
       <c r="C433" s="28"/>
       <c r="D433" s="28"/>
       <c r="E433" s="28"/>
@@ -11835,7 +11820,7 @@
       </c>
     </row>
     <row r="434" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B434" s="41"/>
+      <c r="B434" s="40"/>
       <c r="C434" s="28"/>
       <c r="D434" s="28"/>
       <c r="E434" s="28"/>
@@ -11858,12 +11843,12 @@
       </c>
     </row>
     <row r="435" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B435" s="41"/>
+      <c r="B435" s="40"/>
       <c r="C435" s="28"/>
       <c r="D435" s="28"/>
       <c r="E435" s="28"/>
       <c r="F435" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G435" s="10"/>
       <c r="H435" s="10"/>
@@ -11881,7 +11866,7 @@
       </c>
     </row>
     <row r="436" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B436" s="41"/>
+      <c r="B436" s="40"/>
       <c r="C436" s="28"/>
       <c r="D436" s="28"/>
       <c r="E436" s="28"/>
@@ -11904,7 +11889,7 @@
       </c>
     </row>
     <row r="437" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B437" s="41"/>
+      <c r="B437" s="40"/>
       <c r="C437" s="28"/>
       <c r="D437" s="28"/>
       <c r="E437" s="28"/>
@@ -11927,7 +11912,7 @@
       </c>
     </row>
     <row r="438" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B438" s="41"/>
+      <c r="B438" s="40"/>
       <c r="C438" s="28"/>
       <c r="D438" s="28"/>
       <c r="E438" s="28"/>
@@ -11950,12 +11935,12 @@
       </c>
     </row>
     <row r="439" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B439" s="41"/>
+      <c r="B439" s="40"/>
       <c r="C439" s="28"/>
       <c r="D439" s="28"/>
       <c r="E439" s="28"/>
       <c r="F439" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G439" s="10"/>
       <c r="H439" s="10">
@@ -11975,7 +11960,7 @@
       </c>
     </row>
     <row r="440" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B440" s="41"/>
+      <c r="B440" s="40"/>
       <c r="C440" s="28"/>
       <c r="D440" s="28"/>
       <c r="E440" s="28"/>
@@ -11998,7 +11983,7 @@
       </c>
     </row>
     <row r="441" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B441" s="41"/>
+      <c r="B441" s="40"/>
       <c r="C441" s="28"/>
       <c r="D441" s="29"/>
       <c r="E441" s="29"/>
@@ -12021,16 +12006,16 @@
       </c>
     </row>
     <row r="442" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B442" s="41"/>
+      <c r="B442" s="40"/>
       <c r="C442" s="19"/>
       <c r="D442" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E442" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F442" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G442" s="12"/>
       <c r="H442" s="12"/>
@@ -12048,7 +12033,7 @@
       </c>
     </row>
     <row r="443" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B443" s="41"/>
+      <c r="B443" s="40"/>
       <c r="C443" s="19"/>
       <c r="D443" s="28"/>
       <c r="E443" s="28"/>
@@ -12071,7 +12056,7 @@
       </c>
     </row>
     <row r="444" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B444" s="41"/>
+      <c r="B444" s="40"/>
       <c r="C444" s="19"/>
       <c r="D444" s="28"/>
       <c r="E444" s="28"/>
@@ -12094,7 +12079,7 @@
       </c>
     </row>
     <row r="445" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B445" s="41"/>
+      <c r="B445" s="40"/>
       <c r="C445" s="19"/>
       <c r="D445" s="28"/>
       <c r="E445" s="28"/>
@@ -12117,12 +12102,12 @@
       </c>
     </row>
     <row r="446" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B446" s="41"/>
+      <c r="B446" s="40"/>
       <c r="C446" s="19"/>
       <c r="D446" s="28"/>
       <c r="E446" s="28"/>
       <c r="F446" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G446" s="12"/>
       <c r="H446" s="12"/>
@@ -12140,7 +12125,7 @@
       </c>
     </row>
     <row r="447" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B447" s="41"/>
+      <c r="B447" s="40"/>
       <c r="C447" s="19"/>
       <c r="D447" s="28"/>
       <c r="E447" s="28"/>
@@ -12163,7 +12148,7 @@
       </c>
     </row>
     <row r="448" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B448" s="41"/>
+      <c r="B448" s="40"/>
       <c r="C448" s="19"/>
       <c r="D448" s="28"/>
       <c r="E448" s="28"/>
@@ -12186,7 +12171,7 @@
       </c>
     </row>
     <row r="449" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B449" s="41"/>
+      <c r="B449" s="40"/>
       <c r="C449" s="19"/>
       <c r="D449" s="28"/>
       <c r="E449" s="28"/>
@@ -12209,12 +12194,12 @@
       </c>
     </row>
     <row r="450" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B450" s="41"/>
+      <c r="B450" s="40"/>
       <c r="C450" s="19"/>
       <c r="D450" s="28"/>
       <c r="E450" s="28"/>
       <c r="F450" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G450" s="12"/>
       <c r="H450" s="12"/>
@@ -12232,7 +12217,7 @@
       </c>
     </row>
     <row r="451" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B451" s="41"/>
+      <c r="B451" s="40"/>
       <c r="C451" s="19"/>
       <c r="D451" s="28"/>
       <c r="E451" s="28"/>
@@ -12255,7 +12240,7 @@
       </c>
     </row>
     <row r="452" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B452" s="41"/>
+      <c r="B452" s="40"/>
       <c r="C452" s="19"/>
       <c r="D452" s="28"/>
       <c r="E452" s="28"/>
@@ -12278,7 +12263,7 @@
       </c>
     </row>
     <row r="453" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B453" s="41"/>
+      <c r="B453" s="40"/>
       <c r="C453" s="19"/>
       <c r="D453" s="28"/>
       <c r="E453" s="28"/>
@@ -12301,12 +12286,12 @@
       </c>
     </row>
     <row r="454" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B454" s="41"/>
+      <c r="B454" s="40"/>
       <c r="C454" s="19"/>
       <c r="D454" s="28"/>
       <c r="E454" s="28"/>
       <c r="F454" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G454" s="12"/>
       <c r="H454" s="12"/>
@@ -12324,7 +12309,7 @@
       </c>
     </row>
     <row r="455" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B455" s="41"/>
+      <c r="B455" s="40"/>
       <c r="C455" s="19"/>
       <c r="D455" s="28"/>
       <c r="E455" s="28"/>
@@ -12347,7 +12332,7 @@
       </c>
     </row>
     <row r="456" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B456" s="41"/>
+      <c r="B456" s="40"/>
       <c r="C456" s="19"/>
       <c r="D456" s="28"/>
       <c r="E456" s="28"/>
@@ -12370,7 +12355,7 @@
       </c>
     </row>
     <row r="457" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B457" s="41"/>
+      <c r="B457" s="40"/>
       <c r="C457" s="19"/>
       <c r="D457" s="28"/>
       <c r="E457" s="28"/>
@@ -12393,12 +12378,12 @@
       </c>
     </row>
     <row r="458" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B458" s="41"/>
+      <c r="B458" s="40"/>
       <c r="C458" s="19"/>
       <c r="D458" s="28"/>
       <c r="E458" s="28"/>
       <c r="F458" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G458" s="10"/>
       <c r="H458" s="10"/>
@@ -12416,7 +12401,7 @@
       </c>
     </row>
     <row r="459" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B459" s="41"/>
+      <c r="B459" s="40"/>
       <c r="C459" s="19"/>
       <c r="D459" s="28"/>
       <c r="E459" s="28"/>
@@ -12439,7 +12424,7 @@
       </c>
     </row>
     <row r="460" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B460" s="41"/>
+      <c r="B460" s="40"/>
       <c r="C460" s="19"/>
       <c r="D460" s="28"/>
       <c r="E460" s="28"/>
@@ -12462,7 +12447,7 @@
       </c>
     </row>
     <row r="461" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B461" s="41"/>
+      <c r="B461" s="40"/>
       <c r="C461" s="19"/>
       <c r="D461" s="28"/>
       <c r="E461" s="28"/>
@@ -12485,12 +12470,12 @@
       </c>
     </row>
     <row r="462" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B462" s="41"/>
+      <c r="B462" s="40"/>
       <c r="C462" s="19"/>
       <c r="D462" s="28"/>
       <c r="E462" s="28"/>
       <c r="F462" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G462" s="10"/>
       <c r="H462" s="10">
@@ -12510,7 +12495,7 @@
       </c>
     </row>
     <row r="463" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B463" s="41"/>
+      <c r="B463" s="40"/>
       <c r="C463" s="19"/>
       <c r="D463" s="28"/>
       <c r="E463" s="28"/>
@@ -12533,7 +12518,7 @@
       </c>
     </row>
     <row r="464" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B464" s="41"/>
+      <c r="B464" s="40"/>
       <c r="C464" s="19"/>
       <c r="D464" s="37"/>
       <c r="E464" s="37"/>
@@ -12556,18 +12541,18 @@
       </c>
     </row>
     <row r="465" spans="2:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B465" s="41"/>
-      <c r="C465" s="43">
+      <c r="B465" s="40"/>
+      <c r="C465" s="42">
         <v>0.3</v>
       </c>
       <c r="D465" s="36">
         <v>2</v>
       </c>
       <c r="E465" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F465" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G465" s="14"/>
       <c r="H465" s="14"/>
@@ -12585,8 +12570,8 @@
       </c>
     </row>
     <row r="466" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B466" s="41"/>
-      <c r="C466" s="43"/>
+      <c r="B466" s="40"/>
+      <c r="C466" s="42"/>
       <c r="D466" s="28"/>
       <c r="E466" s="28"/>
       <c r="F466" s="30"/>
@@ -12608,8 +12593,8 @@
       </c>
     </row>
     <row r="467" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B467" s="41"/>
-      <c r="C467" s="43"/>
+      <c r="B467" s="40"/>
+      <c r="C467" s="42"/>
       <c r="D467" s="28"/>
       <c r="E467" s="28"/>
       <c r="F467" s="30"/>
@@ -12631,8 +12616,8 @@
       </c>
     </row>
     <row r="468" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B468" s="41"/>
-      <c r="C468" s="43"/>
+      <c r="B468" s="40"/>
+      <c r="C468" s="42"/>
       <c r="D468" s="28"/>
       <c r="E468" s="28"/>
       <c r="F468" s="31"/>
@@ -12654,12 +12639,12 @@
       </c>
     </row>
     <row r="469" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B469" s="41"/>
-      <c r="C469" s="43"/>
+      <c r="B469" s="40"/>
+      <c r="C469" s="42"/>
       <c r="D469" s="28"/>
       <c r="E469" s="28"/>
       <c r="F469" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G469" s="12"/>
       <c r="H469" s="12"/>
@@ -12677,8 +12662,8 @@
       </c>
     </row>
     <row r="470" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B470" s="41"/>
-      <c r="C470" s="43"/>
+      <c r="B470" s="40"/>
+      <c r="C470" s="42"/>
       <c r="D470" s="28"/>
       <c r="E470" s="28"/>
       <c r="F470" s="28"/>
@@ -12700,8 +12685,8 @@
       </c>
     </row>
     <row r="471" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B471" s="41"/>
-      <c r="C471" s="43"/>
+      <c r="B471" s="40"/>
+      <c r="C471" s="42"/>
       <c r="D471" s="28"/>
       <c r="E471" s="28"/>
       <c r="F471" s="28"/>
@@ -12723,8 +12708,8 @@
       </c>
     </row>
     <row r="472" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B472" s="41"/>
-      <c r="C472" s="43"/>
+      <c r="B472" s="40"/>
+      <c r="C472" s="42"/>
       <c r="D472" s="28"/>
       <c r="E472" s="28"/>
       <c r="F472" s="29"/>
@@ -12746,12 +12731,12 @@
       </c>
     </row>
     <row r="473" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B473" s="41"/>
-      <c r="C473" s="43"/>
+      <c r="B473" s="40"/>
+      <c r="C473" s="42"/>
       <c r="D473" s="28"/>
       <c r="E473" s="28"/>
       <c r="F473" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G473" s="12"/>
       <c r="H473" s="12"/>
@@ -12769,8 +12754,8 @@
       </c>
     </row>
     <row r="474" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B474" s="41"/>
-      <c r="C474" s="43"/>
+      <c r="B474" s="40"/>
+      <c r="C474" s="42"/>
       <c r="D474" s="28"/>
       <c r="E474" s="28"/>
       <c r="F474" s="30"/>
@@ -12792,8 +12777,8 @@
       </c>
     </row>
     <row r="475" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B475" s="41"/>
-      <c r="C475" s="43"/>
+      <c r="B475" s="40"/>
+      <c r="C475" s="42"/>
       <c r="D475" s="28"/>
       <c r="E475" s="28"/>
       <c r="F475" s="30"/>
@@ -12815,8 +12800,8 @@
       </c>
     </row>
     <row r="476" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B476" s="41"/>
-      <c r="C476" s="43"/>
+      <c r="B476" s="40"/>
+      <c r="C476" s="42"/>
       <c r="D476" s="28"/>
       <c r="E476" s="28"/>
       <c r="F476" s="31"/>
@@ -12838,12 +12823,12 @@
       </c>
     </row>
     <row r="477" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="41"/>
-      <c r="C477" s="43"/>
+      <c r="B477" s="40"/>
+      <c r="C477" s="42"/>
       <c r="D477" s="28"/>
       <c r="E477" s="28"/>
       <c r="F477" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G477" s="12"/>
       <c r="H477" s="12"/>
@@ -12861,8 +12846,8 @@
       </c>
     </row>
     <row r="478" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B478" s="41"/>
-      <c r="C478" s="43"/>
+      <c r="B478" s="40"/>
+      <c r="C478" s="42"/>
       <c r="D478" s="28"/>
       <c r="E478" s="28"/>
       <c r="F478" s="30"/>
@@ -12884,8 +12869,8 @@
       </c>
     </row>
     <row r="479" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B479" s="41"/>
-      <c r="C479" s="43"/>
+      <c r="B479" s="40"/>
+      <c r="C479" s="42"/>
       <c r="D479" s="28"/>
       <c r="E479" s="28"/>
       <c r="F479" s="30"/>
@@ -12907,8 +12892,8 @@
       </c>
     </row>
     <row r="480" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B480" s="41"/>
-      <c r="C480" s="43"/>
+      <c r="B480" s="40"/>
+      <c r="C480" s="42"/>
       <c r="D480" s="28"/>
       <c r="E480" s="28"/>
       <c r="F480" s="31"/>
@@ -12930,12 +12915,12 @@
       </c>
     </row>
     <row r="481" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="41"/>
-      <c r="C481" s="43"/>
+      <c r="B481" s="40"/>
+      <c r="C481" s="42"/>
       <c r="D481" s="28"/>
       <c r="E481" s="28"/>
       <c r="F481" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G481" s="10"/>
       <c r="H481" s="10"/>
@@ -12953,8 +12938,8 @@
       </c>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B482" s="41"/>
-      <c r="C482" s="43"/>
+      <c r="B482" s="40"/>
+      <c r="C482" s="42"/>
       <c r="D482" s="28"/>
       <c r="E482" s="28"/>
       <c r="F482" s="30"/>
@@ -12976,8 +12961,8 @@
       </c>
     </row>
     <row r="483" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B483" s="41"/>
-      <c r="C483" s="43"/>
+      <c r="B483" s="40"/>
+      <c r="C483" s="42"/>
       <c r="D483" s="28"/>
       <c r="E483" s="28"/>
       <c r="F483" s="30"/>
@@ -12999,8 +12984,8 @@
       </c>
     </row>
     <row r="484" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B484" s="41"/>
-      <c r="C484" s="43"/>
+      <c r="B484" s="40"/>
+      <c r="C484" s="42"/>
       <c r="D484" s="28"/>
       <c r="E484" s="28"/>
       <c r="F484" s="31"/>
@@ -13022,12 +13007,12 @@
       </c>
     </row>
     <row r="485" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B485" s="41"/>
-      <c r="C485" s="43"/>
+      <c r="B485" s="40"/>
+      <c r="C485" s="42"/>
       <c r="D485" s="28"/>
       <c r="E485" s="28"/>
       <c r="F485" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G485" s="10"/>
       <c r="H485" s="10">
@@ -13047,8 +13032,8 @@
       </c>
     </row>
     <row r="486" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B486" s="41"/>
-      <c r="C486" s="43"/>
+      <c r="B486" s="40"/>
+      <c r="C486" s="42"/>
       <c r="D486" s="28"/>
       <c r="E486" s="28"/>
       <c r="F486" s="30"/>
@@ -13070,8 +13055,8 @@
       </c>
     </row>
     <row r="487" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B487" s="41"/>
-      <c r="C487" s="43"/>
+      <c r="B487" s="40"/>
+      <c r="C487" s="42"/>
       <c r="D487" s="29"/>
       <c r="E487" s="37"/>
       <c r="F487" s="31"/>
@@ -13093,16 +13078,16 @@
       </c>
     </row>
     <row r="488" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B488" s="41"/>
-      <c r="C488" s="43"/>
+      <c r="B488" s="40"/>
+      <c r="C488" s="42"/>
       <c r="D488" s="27">
         <v>3</v>
       </c>
       <c r="E488" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F488" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G488" s="12"/>
       <c r="H488" s="12"/>
@@ -13120,8 +13105,8 @@
       </c>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B489" s="41"/>
-      <c r="C489" s="43"/>
+      <c r="B489" s="40"/>
+      <c r="C489" s="42"/>
       <c r="D489" s="28"/>
       <c r="E489" s="28"/>
       <c r="F489" s="30"/>
@@ -13143,8 +13128,8 @@
       </c>
     </row>
     <row r="490" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B490" s="41"/>
-      <c r="C490" s="43"/>
+      <c r="B490" s="40"/>
+      <c r="C490" s="42"/>
       <c r="D490" s="28"/>
       <c r="E490" s="28"/>
       <c r="F490" s="30"/>
@@ -13166,8 +13151,8 @@
       </c>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B491" s="41"/>
-      <c r="C491" s="43"/>
+      <c r="B491" s="40"/>
+      <c r="C491" s="42"/>
       <c r="D491" s="28"/>
       <c r="E491" s="28"/>
       <c r="F491" s="31"/>
@@ -13189,12 +13174,12 @@
       </c>
     </row>
     <row r="492" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B492" s="41"/>
-      <c r="C492" s="43"/>
+      <c r="B492" s="40"/>
+      <c r="C492" s="42"/>
       <c r="D492" s="28"/>
       <c r="E492" s="28"/>
       <c r="F492" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G492" s="12"/>
       <c r="H492" s="12"/>
@@ -13212,8 +13197,8 @@
       </c>
     </row>
     <row r="493" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B493" s="41"/>
-      <c r="C493" s="43"/>
+      <c r="B493" s="40"/>
+      <c r="C493" s="42"/>
       <c r="D493" s="28"/>
       <c r="E493" s="28"/>
       <c r="F493" s="28"/>
@@ -13235,8 +13220,8 @@
       </c>
     </row>
     <row r="494" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B494" s="41"/>
-      <c r="C494" s="43"/>
+      <c r="B494" s="40"/>
+      <c r="C494" s="42"/>
       <c r="D494" s="28"/>
       <c r="E494" s="28"/>
       <c r="F494" s="28"/>
@@ -13258,8 +13243,8 @@
       </c>
     </row>
     <row r="495" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B495" s="41"/>
-      <c r="C495" s="43"/>
+      <c r="B495" s="40"/>
+      <c r="C495" s="42"/>
       <c r="D495" s="28"/>
       <c r="E495" s="28"/>
       <c r="F495" s="29"/>
@@ -13281,12 +13266,12 @@
       </c>
     </row>
     <row r="496" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B496" s="41"/>
-      <c r="C496" s="43"/>
+      <c r="B496" s="40"/>
+      <c r="C496" s="42"/>
       <c r="D496" s="28"/>
       <c r="E496" s="28"/>
       <c r="F496" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G496" s="12"/>
       <c r="H496" s="12"/>
@@ -13304,8 +13289,8 @@
       </c>
     </row>
     <row r="497" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B497" s="41"/>
-      <c r="C497" s="43"/>
+      <c r="B497" s="40"/>
+      <c r="C497" s="42"/>
       <c r="D497" s="28"/>
       <c r="E497" s="28"/>
       <c r="F497" s="30"/>
@@ -13327,8 +13312,8 @@
       </c>
     </row>
     <row r="498" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B498" s="41"/>
-      <c r="C498" s="43"/>
+      <c r="B498" s="40"/>
+      <c r="C498" s="42"/>
       <c r="D498" s="28"/>
       <c r="E498" s="28"/>
       <c r="F498" s="30"/>
@@ -13350,8 +13335,8 @@
       </c>
     </row>
     <row r="499" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B499" s="41"/>
-      <c r="C499" s="43"/>
+      <c r="B499" s="40"/>
+      <c r="C499" s="42"/>
       <c r="D499" s="28"/>
       <c r="E499" s="28"/>
       <c r="F499" s="31"/>
@@ -13373,12 +13358,12 @@
       </c>
     </row>
     <row r="500" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B500" s="41"/>
-      <c r="C500" s="43"/>
+      <c r="B500" s="40"/>
+      <c r="C500" s="42"/>
       <c r="D500" s="28"/>
       <c r="E500" s="28"/>
       <c r="F500" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G500" s="12"/>
       <c r="H500" s="12"/>
@@ -13396,8 +13381,8 @@
       </c>
     </row>
     <row r="501" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B501" s="41"/>
-      <c r="C501" s="43"/>
+      <c r="B501" s="40"/>
+      <c r="C501" s="42"/>
       <c r="D501" s="28"/>
       <c r="E501" s="28"/>
       <c r="F501" s="30"/>
@@ -13419,8 +13404,8 @@
       </c>
     </row>
     <row r="502" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B502" s="41"/>
-      <c r="C502" s="43"/>
+      <c r="B502" s="40"/>
+      <c r="C502" s="42"/>
       <c r="D502" s="28"/>
       <c r="E502" s="28"/>
       <c r="F502" s="30"/>
@@ -13442,8 +13427,8 @@
       </c>
     </row>
     <row r="503" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B503" s="41"/>
-      <c r="C503" s="43"/>
+      <c r="B503" s="40"/>
+      <c r="C503" s="42"/>
       <c r="D503" s="28"/>
       <c r="E503" s="28"/>
       <c r="F503" s="31"/>
@@ -13465,12 +13450,12 @@
       </c>
     </row>
     <row r="504" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B504" s="41"/>
-      <c r="C504" s="43"/>
+      <c r="B504" s="40"/>
+      <c r="C504" s="42"/>
       <c r="D504" s="28"/>
       <c r="E504" s="28"/>
       <c r="F504" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G504" s="10"/>
       <c r="H504" s="10"/>
@@ -13488,8 +13473,8 @@
       </c>
     </row>
     <row r="505" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B505" s="41"/>
-      <c r="C505" s="43"/>
+      <c r="B505" s="40"/>
+      <c r="C505" s="42"/>
       <c r="D505" s="28"/>
       <c r="E505" s="28"/>
       <c r="F505" s="30"/>
@@ -13511,8 +13496,8 @@
       </c>
     </row>
     <row r="506" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B506" s="41"/>
-      <c r="C506" s="43"/>
+      <c r="B506" s="40"/>
+      <c r="C506" s="42"/>
       <c r="D506" s="28"/>
       <c r="E506" s="28"/>
       <c r="F506" s="30"/>
@@ -13534,8 +13519,8 @@
       </c>
     </row>
     <row r="507" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B507" s="41"/>
-      <c r="C507" s="43"/>
+      <c r="B507" s="40"/>
+      <c r="C507" s="42"/>
       <c r="D507" s="28"/>
       <c r="E507" s="28"/>
       <c r="F507" s="31"/>
@@ -13557,12 +13542,12 @@
       </c>
     </row>
     <row r="508" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B508" s="41"/>
-      <c r="C508" s="43"/>
+      <c r="B508" s="40"/>
+      <c r="C508" s="42"/>
       <c r="D508" s="28"/>
       <c r="E508" s="28"/>
       <c r="F508" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G508" s="10"/>
       <c r="H508" s="10">
@@ -13582,8 +13567,8 @@
       </c>
     </row>
     <row r="509" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B509" s="41"/>
-      <c r="C509" s="43"/>
+      <c r="B509" s="40"/>
+      <c r="C509" s="42"/>
       <c r="D509" s="28"/>
       <c r="E509" s="28"/>
       <c r="F509" s="30"/>
@@ -13605,8 +13590,8 @@
       </c>
     </row>
     <row r="510" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B510" s="41"/>
-      <c r="C510" s="43"/>
+      <c r="B510" s="40"/>
+      <c r="C510" s="42"/>
       <c r="D510" s="29"/>
       <c r="E510" s="37"/>
       <c r="F510" s="31"/>
@@ -13628,16 +13613,16 @@
       </c>
     </row>
     <row r="511" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B511" s="41"/>
-      <c r="C511" s="43"/>
+      <c r="B511" s="40"/>
+      <c r="C511" s="42"/>
       <c r="D511" s="27">
         <v>4</v>
       </c>
       <c r="E511" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F511" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G511" s="12"/>
       <c r="H511" s="12"/>
@@ -13655,8 +13640,8 @@
       </c>
     </row>
     <row r="512" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B512" s="41"/>
-      <c r="C512" s="43"/>
+      <c r="B512" s="40"/>
+      <c r="C512" s="42"/>
       <c r="D512" s="28"/>
       <c r="E512" s="28"/>
       <c r="F512" s="30"/>
@@ -13678,8 +13663,8 @@
       </c>
     </row>
     <row r="513" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B513" s="41"/>
-      <c r="C513" s="43"/>
+      <c r="B513" s="40"/>
+      <c r="C513" s="42"/>
       <c r="D513" s="28"/>
       <c r="E513" s="28"/>
       <c r="F513" s="30"/>
@@ -13701,8 +13686,8 @@
       </c>
     </row>
     <row r="514" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B514" s="41"/>
-      <c r="C514" s="43"/>
+      <c r="B514" s="40"/>
+      <c r="C514" s="42"/>
       <c r="D514" s="28"/>
       <c r="E514" s="28"/>
       <c r="F514" s="31"/>
@@ -13724,12 +13709,12 @@
       </c>
     </row>
     <row r="515" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B515" s="41"/>
-      <c r="C515" s="43"/>
+      <c r="B515" s="40"/>
+      <c r="C515" s="42"/>
       <c r="D515" s="28"/>
       <c r="E515" s="28"/>
       <c r="F515" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G515" s="12"/>
       <c r="H515" s="12"/>
@@ -13747,8 +13732,8 @@
       </c>
     </row>
     <row r="516" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B516" s="41"/>
-      <c r="C516" s="43"/>
+      <c r="B516" s="40"/>
+      <c r="C516" s="42"/>
       <c r="D516" s="28"/>
       <c r="E516" s="28"/>
       <c r="F516" s="28"/>
@@ -13770,8 +13755,8 @@
       </c>
     </row>
     <row r="517" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B517" s="41"/>
-      <c r="C517" s="43"/>
+      <c r="B517" s="40"/>
+      <c r="C517" s="42"/>
       <c r="D517" s="28"/>
       <c r="E517" s="28"/>
       <c r="F517" s="28"/>
@@ -13793,8 +13778,8 @@
       </c>
     </row>
     <row r="518" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B518" s="41"/>
-      <c r="C518" s="43"/>
+      <c r="B518" s="40"/>
+      <c r="C518" s="42"/>
       <c r="D518" s="28"/>
       <c r="E518" s="28"/>
       <c r="F518" s="29"/>
@@ -13816,12 +13801,12 @@
       </c>
     </row>
     <row r="519" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B519" s="41"/>
-      <c r="C519" s="43"/>
+      <c r="B519" s="40"/>
+      <c r="C519" s="42"/>
       <c r="D519" s="28"/>
       <c r="E519" s="28"/>
       <c r="F519" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G519" s="12"/>
       <c r="H519" s="12"/>
@@ -13839,8 +13824,8 @@
       </c>
     </row>
     <row r="520" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B520" s="41"/>
-      <c r="C520" s="43"/>
+      <c r="B520" s="40"/>
+      <c r="C520" s="42"/>
       <c r="D520" s="28"/>
       <c r="E520" s="28"/>
       <c r="F520" s="30"/>
@@ -13862,8 +13847,8 @@
       </c>
     </row>
     <row r="521" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B521" s="41"/>
-      <c r="C521" s="43"/>
+      <c r="B521" s="40"/>
+      <c r="C521" s="42"/>
       <c r="D521" s="28"/>
       <c r="E521" s="28"/>
       <c r="F521" s="30"/>
@@ -13885,8 +13870,8 @@
       </c>
     </row>
     <row r="522" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B522" s="41"/>
-      <c r="C522" s="43"/>
+      <c r="B522" s="40"/>
+      <c r="C522" s="42"/>
       <c r="D522" s="28"/>
       <c r="E522" s="28"/>
       <c r="F522" s="31"/>
@@ -13908,12 +13893,12 @@
       </c>
     </row>
     <row r="523" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B523" s="41"/>
-      <c r="C523" s="43"/>
+      <c r="B523" s="40"/>
+      <c r="C523" s="42"/>
       <c r="D523" s="28"/>
       <c r="E523" s="28"/>
       <c r="F523" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G523" s="12"/>
       <c r="H523" s="12"/>
@@ -13931,8 +13916,8 @@
       </c>
     </row>
     <row r="524" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B524" s="41"/>
-      <c r="C524" s="43"/>
+      <c r="B524" s="40"/>
+      <c r="C524" s="42"/>
       <c r="D524" s="28"/>
       <c r="E524" s="28"/>
       <c r="F524" s="30"/>
@@ -13954,8 +13939,8 @@
       </c>
     </row>
     <row r="525" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B525" s="41"/>
-      <c r="C525" s="43"/>
+      <c r="B525" s="40"/>
+      <c r="C525" s="42"/>
       <c r="D525" s="28"/>
       <c r="E525" s="28"/>
       <c r="F525" s="30"/>
@@ -13977,8 +13962,8 @@
       </c>
     </row>
     <row r="526" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B526" s="41"/>
-      <c r="C526" s="43"/>
+      <c r="B526" s="40"/>
+      <c r="C526" s="42"/>
       <c r="D526" s="28"/>
       <c r="E526" s="28"/>
       <c r="F526" s="31"/>
@@ -14000,12 +13985,12 @@
       </c>
     </row>
     <row r="527" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B527" s="41"/>
-      <c r="C527" s="43"/>
+      <c r="B527" s="40"/>
+      <c r="C527" s="42"/>
       <c r="D527" s="28"/>
       <c r="E527" s="28"/>
       <c r="F527" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G527" s="10"/>
       <c r="H527" s="10"/>
@@ -14023,8 +14008,8 @@
       </c>
     </row>
     <row r="528" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B528" s="41"/>
-      <c r="C528" s="43"/>
+      <c r="B528" s="40"/>
+      <c r="C528" s="42"/>
       <c r="D528" s="28"/>
       <c r="E528" s="28"/>
       <c r="F528" s="30"/>
@@ -14046,8 +14031,8 @@
       </c>
     </row>
     <row r="529" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B529" s="41"/>
-      <c r="C529" s="43"/>
+      <c r="B529" s="40"/>
+      <c r="C529" s="42"/>
       <c r="D529" s="28"/>
       <c r="E529" s="28"/>
       <c r="F529" s="30"/>
@@ -14069,8 +14054,8 @@
       </c>
     </row>
     <row r="530" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B530" s="41"/>
-      <c r="C530" s="43"/>
+      <c r="B530" s="40"/>
+      <c r="C530" s="42"/>
       <c r="D530" s="28"/>
       <c r="E530" s="28"/>
       <c r="F530" s="31"/>
@@ -14092,12 +14077,12 @@
       </c>
     </row>
     <row r="531" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B531" s="41"/>
-      <c r="C531" s="43"/>
+      <c r="B531" s="40"/>
+      <c r="C531" s="42"/>
       <c r="D531" s="28"/>
       <c r="E531" s="28"/>
       <c r="F531" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G531" s="10"/>
       <c r="H531" s="10">
@@ -14117,8 +14102,8 @@
       </c>
     </row>
     <row r="532" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B532" s="41"/>
-      <c r="C532" s="43"/>
+      <c r="B532" s="40"/>
+      <c r="C532" s="42"/>
       <c r="D532" s="28"/>
       <c r="E532" s="28"/>
       <c r="F532" s="30"/>
@@ -14140,8 +14125,8 @@
       </c>
     </row>
     <row r="533" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B533" s="41"/>
-      <c r="C533" s="43"/>
+      <c r="B533" s="40"/>
+      <c r="C533" s="42"/>
       <c r="D533" s="29"/>
       <c r="E533" s="37"/>
       <c r="F533" s="31"/>
@@ -14163,16 +14148,16 @@
       </c>
     </row>
     <row r="534" spans="2:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B534" s="41"/>
-      <c r="C534" s="43"/>
+      <c r="B534" s="40"/>
+      <c r="C534" s="42"/>
       <c r="D534" s="27">
         <v>5</v>
       </c>
       <c r="E534" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F534" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G534" s="14"/>
       <c r="H534" s="14"/>
@@ -14190,8 +14175,8 @@
       </c>
     </row>
     <row r="535" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B535" s="41"/>
-      <c r="C535" s="43"/>
+      <c r="B535" s="40"/>
+      <c r="C535" s="42"/>
       <c r="D535" s="28"/>
       <c r="E535" s="28"/>
       <c r="F535" s="30"/>
@@ -14213,8 +14198,8 @@
       </c>
     </row>
     <row r="536" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B536" s="41"/>
-      <c r="C536" s="43"/>
+      <c r="B536" s="40"/>
+      <c r="C536" s="42"/>
       <c r="D536" s="28"/>
       <c r="E536" s="28"/>
       <c r="F536" s="30"/>
@@ -14236,8 +14221,8 @@
       </c>
     </row>
     <row r="537" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B537" s="41"/>
-      <c r="C537" s="43"/>
+      <c r="B537" s="40"/>
+      <c r="C537" s="42"/>
       <c r="D537" s="28"/>
       <c r="E537" s="28"/>
       <c r="F537" s="31"/>
@@ -14259,12 +14244,12 @@
       </c>
     </row>
     <row r="538" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B538" s="41"/>
-      <c r="C538" s="43"/>
+      <c r="B538" s="40"/>
+      <c r="C538" s="42"/>
       <c r="D538" s="28"/>
       <c r="E538" s="28"/>
       <c r="F538" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G538" s="12"/>
       <c r="H538" s="12"/>
@@ -14282,8 +14267,8 @@
       </c>
     </row>
     <row r="539" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B539" s="41"/>
-      <c r="C539" s="43"/>
+      <c r="B539" s="40"/>
+      <c r="C539" s="42"/>
       <c r="D539" s="28"/>
       <c r="E539" s="28"/>
       <c r="F539" s="28"/>
@@ -14305,8 +14290,8 @@
       </c>
     </row>
     <row r="540" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B540" s="41"/>
-      <c r="C540" s="43"/>
+      <c r="B540" s="40"/>
+      <c r="C540" s="42"/>
       <c r="D540" s="28"/>
       <c r="E540" s="28"/>
       <c r="F540" s="28"/>
@@ -14328,8 +14313,8 @@
       </c>
     </row>
     <row r="541" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B541" s="41"/>
-      <c r="C541" s="43"/>
+      <c r="B541" s="40"/>
+      <c r="C541" s="42"/>
       <c r="D541" s="28"/>
       <c r="E541" s="28"/>
       <c r="F541" s="29"/>
@@ -14351,12 +14336,12 @@
       </c>
     </row>
     <row r="542" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B542" s="41"/>
-      <c r="C542" s="43"/>
+      <c r="B542" s="40"/>
+      <c r="C542" s="42"/>
       <c r="D542" s="28"/>
       <c r="E542" s="28"/>
       <c r="F542" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G542" s="12"/>
       <c r="H542" s="12"/>
@@ -14374,8 +14359,8 @@
       </c>
     </row>
     <row r="543" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B543" s="41"/>
-      <c r="C543" s="43"/>
+      <c r="B543" s="40"/>
+      <c r="C543" s="42"/>
       <c r="D543" s="28"/>
       <c r="E543" s="28"/>
       <c r="F543" s="30"/>
@@ -14397,8 +14382,8 @@
       </c>
     </row>
     <row r="544" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B544" s="41"/>
-      <c r="C544" s="43"/>
+      <c r="B544" s="40"/>
+      <c r="C544" s="42"/>
       <c r="D544" s="28"/>
       <c r="E544" s="28"/>
       <c r="F544" s="30"/>
@@ -14420,8 +14405,8 @@
       </c>
     </row>
     <row r="545" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B545" s="41"/>
-      <c r="C545" s="43"/>
+      <c r="B545" s="40"/>
+      <c r="C545" s="42"/>
       <c r="D545" s="28"/>
       <c r="E545" s="28"/>
       <c r="F545" s="31"/>
@@ -14443,12 +14428,12 @@
       </c>
     </row>
     <row r="546" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B546" s="41"/>
-      <c r="C546" s="43"/>
+      <c r="B546" s="40"/>
+      <c r="C546" s="42"/>
       <c r="D546" s="28"/>
       <c r="E546" s="28"/>
       <c r="F546" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G546" s="12"/>
       <c r="H546" s="12"/>
@@ -14466,8 +14451,8 @@
       </c>
     </row>
     <row r="547" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B547" s="41"/>
-      <c r="C547" s="43"/>
+      <c r="B547" s="40"/>
+      <c r="C547" s="42"/>
       <c r="D547" s="28"/>
       <c r="E547" s="28"/>
       <c r="F547" s="30"/>
@@ -14489,8 +14474,8 @@
       </c>
     </row>
     <row r="548" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B548" s="41"/>
-      <c r="C548" s="43"/>
+      <c r="B548" s="40"/>
+      <c r="C548" s="42"/>
       <c r="D548" s="28"/>
       <c r="E548" s="28"/>
       <c r="F548" s="30"/>
@@ -14512,8 +14497,8 @@
       </c>
     </row>
     <row r="549" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B549" s="41"/>
-      <c r="C549" s="43"/>
+      <c r="B549" s="40"/>
+      <c r="C549" s="42"/>
       <c r="D549" s="28"/>
       <c r="E549" s="28"/>
       <c r="F549" s="31"/>
@@ -14535,12 +14520,12 @@
       </c>
     </row>
     <row r="550" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B550" s="41"/>
-      <c r="C550" s="43"/>
+      <c r="B550" s="40"/>
+      <c r="C550" s="42"/>
       <c r="D550" s="28"/>
       <c r="E550" s="28"/>
       <c r="F550" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G550" s="10"/>
       <c r="H550" s="10"/>
@@ -14558,8 +14543,8 @@
       </c>
     </row>
     <row r="551" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B551" s="41"/>
-      <c r="C551" s="43"/>
+      <c r="B551" s="40"/>
+      <c r="C551" s="42"/>
       <c r="D551" s="28"/>
       <c r="E551" s="28"/>
       <c r="F551" s="30"/>
@@ -14581,8 +14566,8 @@
       </c>
     </row>
     <row r="552" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B552" s="41"/>
-      <c r="C552" s="43"/>
+      <c r="B552" s="40"/>
+      <c r="C552" s="42"/>
       <c r="D552" s="28"/>
       <c r="E552" s="28"/>
       <c r="F552" s="30"/>
@@ -14604,8 +14589,8 @@
       </c>
     </row>
     <row r="553" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B553" s="41"/>
-      <c r="C553" s="43"/>
+      <c r="B553" s="40"/>
+      <c r="C553" s="42"/>
       <c r="D553" s="28"/>
       <c r="E553" s="28"/>
       <c r="F553" s="31"/>
@@ -14627,12 +14612,12 @@
       </c>
     </row>
     <row r="554" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B554" s="41"/>
-      <c r="C554" s="43"/>
+      <c r="B554" s="40"/>
+      <c r="C554" s="42"/>
       <c r="D554" s="28"/>
       <c r="E554" s="28"/>
       <c r="F554" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G554" s="10"/>
       <c r="H554" s="10">
@@ -14652,8 +14637,8 @@
       </c>
     </row>
     <row r="555" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B555" s="41"/>
-      <c r="C555" s="43"/>
+      <c r="B555" s="40"/>
+      <c r="C555" s="42"/>
       <c r="D555" s="28"/>
       <c r="E555" s="28"/>
       <c r="F555" s="30"/>
@@ -14675,8 +14660,8 @@
       </c>
     </row>
     <row r="556" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B556" s="41"/>
-      <c r="C556" s="43"/>
+      <c r="B556" s="40"/>
+      <c r="C556" s="42"/>
       <c r="D556" s="29"/>
       <c r="E556" s="37"/>
       <c r="F556" s="31"/>
@@ -14698,16 +14683,16 @@
       </c>
     </row>
     <row r="557" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B557" s="41"/>
-      <c r="C557" s="43"/>
+      <c r="B557" s="40"/>
+      <c r="C557" s="42"/>
       <c r="D557" s="27">
         <v>6</v>
       </c>
       <c r="E557" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F557" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G557" s="12"/>
       <c r="H557" s="12"/>
@@ -14725,8 +14710,8 @@
       </c>
     </row>
     <row r="558" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B558" s="41"/>
-      <c r="C558" s="43"/>
+      <c r="B558" s="40"/>
+      <c r="C558" s="42"/>
       <c r="D558" s="28"/>
       <c r="E558" s="28"/>
       <c r="F558" s="30"/>
@@ -14748,8 +14733,8 @@
       </c>
     </row>
     <row r="559" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B559" s="41"/>
-      <c r="C559" s="43"/>
+      <c r="B559" s="40"/>
+      <c r="C559" s="42"/>
       <c r="D559" s="28"/>
       <c r="E559" s="28"/>
       <c r="F559" s="30"/>
@@ -14771,8 +14756,8 @@
       </c>
     </row>
     <row r="560" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B560" s="41"/>
-      <c r="C560" s="43"/>
+      <c r="B560" s="40"/>
+      <c r="C560" s="42"/>
       <c r="D560" s="28"/>
       <c r="E560" s="28"/>
       <c r="F560" s="31"/>
@@ -14794,12 +14779,12 @@
       </c>
     </row>
     <row r="561" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B561" s="41"/>
-      <c r="C561" s="43"/>
+      <c r="B561" s="40"/>
+      <c r="C561" s="42"/>
       <c r="D561" s="28"/>
       <c r="E561" s="28"/>
       <c r="F561" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G561" s="12"/>
       <c r="H561" s="12"/>
@@ -14817,8 +14802,8 @@
       </c>
     </row>
     <row r="562" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B562" s="41"/>
-      <c r="C562" s="43"/>
+      <c r="B562" s="40"/>
+      <c r="C562" s="42"/>
       <c r="D562" s="28"/>
       <c r="E562" s="28"/>
       <c r="F562" s="28"/>
@@ -14840,8 +14825,8 @@
       </c>
     </row>
     <row r="563" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B563" s="41"/>
-      <c r="C563" s="43"/>
+      <c r="B563" s="40"/>
+      <c r="C563" s="42"/>
       <c r="D563" s="28"/>
       <c r="E563" s="28"/>
       <c r="F563" s="28"/>
@@ -14863,8 +14848,8 @@
       </c>
     </row>
     <row r="564" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B564" s="41"/>
-      <c r="C564" s="43"/>
+      <c r="B564" s="40"/>
+      <c r="C564" s="42"/>
       <c r="D564" s="28"/>
       <c r="E564" s="28"/>
       <c r="F564" s="29"/>
@@ -14886,12 +14871,12 @@
       </c>
     </row>
     <row r="565" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B565" s="41"/>
-      <c r="C565" s="43"/>
+      <c r="B565" s="40"/>
+      <c r="C565" s="42"/>
       <c r="D565" s="28"/>
       <c r="E565" s="28"/>
       <c r="F565" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G565" s="12"/>
       <c r="H565" s="12"/>
@@ -14909,8 +14894,8 @@
       </c>
     </row>
     <row r="566" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B566" s="41"/>
-      <c r="C566" s="43"/>
+      <c r="B566" s="40"/>
+      <c r="C566" s="42"/>
       <c r="D566" s="28"/>
       <c r="E566" s="28"/>
       <c r="F566" s="30"/>
@@ -14932,8 +14917,8 @@
       </c>
     </row>
     <row r="567" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B567" s="41"/>
-      <c r="C567" s="43"/>
+      <c r="B567" s="40"/>
+      <c r="C567" s="42"/>
       <c r="D567" s="28"/>
       <c r="E567" s="28"/>
       <c r="F567" s="30"/>
@@ -14955,8 +14940,8 @@
       </c>
     </row>
     <row r="568" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B568" s="41"/>
-      <c r="C568" s="43"/>
+      <c r="B568" s="40"/>
+      <c r="C568" s="42"/>
       <c r="D568" s="28"/>
       <c r="E568" s="28"/>
       <c r="F568" s="31"/>
@@ -14978,12 +14963,12 @@
       </c>
     </row>
     <row r="569" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B569" s="41"/>
-      <c r="C569" s="43"/>
+      <c r="B569" s="40"/>
+      <c r="C569" s="42"/>
       <c r="D569" s="28"/>
       <c r="E569" s="28"/>
       <c r="F569" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G569" s="12"/>
       <c r="H569" s="12"/>
@@ -15001,8 +14986,8 @@
       </c>
     </row>
     <row r="570" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B570" s="41"/>
-      <c r="C570" s="43"/>
+      <c r="B570" s="40"/>
+      <c r="C570" s="42"/>
       <c r="D570" s="28"/>
       <c r="E570" s="28"/>
       <c r="F570" s="30"/>
@@ -15024,8 +15009,8 @@
       </c>
     </row>
     <row r="571" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B571" s="41"/>
-      <c r="C571" s="43"/>
+      <c r="B571" s="40"/>
+      <c r="C571" s="42"/>
       <c r="D571" s="28"/>
       <c r="E571" s="28"/>
       <c r="F571" s="30"/>
@@ -15047,8 +15032,8 @@
       </c>
     </row>
     <row r="572" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B572" s="41"/>
-      <c r="C572" s="43"/>
+      <c r="B572" s="40"/>
+      <c r="C572" s="42"/>
       <c r="D572" s="28"/>
       <c r="E572" s="28"/>
       <c r="F572" s="31"/>
@@ -15070,12 +15055,12 @@
       </c>
     </row>
     <row r="573" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B573" s="41"/>
-      <c r="C573" s="43"/>
+      <c r="B573" s="40"/>
+      <c r="C573" s="42"/>
       <c r="D573" s="28"/>
       <c r="E573" s="28"/>
       <c r="F573" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G573" s="10"/>
       <c r="H573" s="10"/>
@@ -15093,8 +15078,8 @@
       </c>
     </row>
     <row r="574" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B574" s="41"/>
-      <c r="C574" s="43"/>
+      <c r="B574" s="40"/>
+      <c r="C574" s="42"/>
       <c r="D574" s="28"/>
       <c r="E574" s="28"/>
       <c r="F574" s="30"/>
@@ -15116,8 +15101,8 @@
       </c>
     </row>
     <row r="575" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B575" s="41"/>
-      <c r="C575" s="43"/>
+      <c r="B575" s="40"/>
+      <c r="C575" s="42"/>
       <c r="D575" s="28"/>
       <c r="E575" s="28"/>
       <c r="F575" s="30"/>
@@ -15139,8 +15124,8 @@
       </c>
     </row>
     <row r="576" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B576" s="41"/>
-      <c r="C576" s="43"/>
+      <c r="B576" s="40"/>
+      <c r="C576" s="42"/>
       <c r="D576" s="28"/>
       <c r="E576" s="28"/>
       <c r="F576" s="31"/>
@@ -15162,12 +15147,12 @@
       </c>
     </row>
     <row r="577" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B577" s="41"/>
-      <c r="C577" s="43"/>
+      <c r="B577" s="40"/>
+      <c r="C577" s="42"/>
       <c r="D577" s="28"/>
       <c r="E577" s="28"/>
       <c r="F577" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G577" s="10"/>
       <c r="H577" s="10">
@@ -15187,8 +15172,8 @@
       </c>
     </row>
     <row r="578" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B578" s="41"/>
-      <c r="C578" s="43"/>
+      <c r="B578" s="40"/>
+      <c r="C578" s="42"/>
       <c r="D578" s="28"/>
       <c r="E578" s="28"/>
       <c r="F578" s="30"/>
@@ -15210,8 +15195,8 @@
       </c>
     </row>
     <row r="579" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B579" s="41"/>
-      <c r="C579" s="43"/>
+      <c r="B579" s="40"/>
+      <c r="C579" s="42"/>
       <c r="D579" s="29"/>
       <c r="E579" s="37"/>
       <c r="F579" s="31"/>
@@ -15233,16 +15218,16 @@
       </c>
     </row>
     <row r="580" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B580" s="41"/>
-      <c r="C580" s="43"/>
+      <c r="B580" s="40"/>
+      <c r="C580" s="42"/>
       <c r="D580" s="27">
         <v>7</v>
       </c>
       <c r="E580" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F580" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G580" s="12"/>
       <c r="H580" s="12"/>
@@ -15260,8 +15245,8 @@
       </c>
     </row>
     <row r="581" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B581" s="41"/>
-      <c r="C581" s="43"/>
+      <c r="B581" s="40"/>
+      <c r="C581" s="42"/>
       <c r="D581" s="28"/>
       <c r="E581" s="28"/>
       <c r="F581" s="30"/>
@@ -15283,8 +15268,8 @@
       </c>
     </row>
     <row r="582" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B582" s="41"/>
-      <c r="C582" s="43"/>
+      <c r="B582" s="40"/>
+      <c r="C582" s="42"/>
       <c r="D582" s="28"/>
       <c r="E582" s="28"/>
       <c r="F582" s="30"/>
@@ -15306,8 +15291,8 @@
       </c>
     </row>
     <row r="583" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B583" s="41"/>
-      <c r="C583" s="43"/>
+      <c r="B583" s="40"/>
+      <c r="C583" s="42"/>
       <c r="D583" s="28"/>
       <c r="E583" s="28"/>
       <c r="F583" s="31"/>
@@ -15329,12 +15314,12 @@
       </c>
     </row>
     <row r="584" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B584" s="41"/>
-      <c r="C584" s="43"/>
+      <c r="B584" s="40"/>
+      <c r="C584" s="42"/>
       <c r="D584" s="28"/>
       <c r="E584" s="28"/>
       <c r="F584" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G584" s="12"/>
       <c r="H584" s="12"/>
@@ -15352,8 +15337,8 @@
       </c>
     </row>
     <row r="585" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B585" s="41"/>
-      <c r="C585" s="43"/>
+      <c r="B585" s="40"/>
+      <c r="C585" s="42"/>
       <c r="D585" s="28"/>
       <c r="E585" s="28"/>
       <c r="F585" s="28"/>
@@ -15375,8 +15360,8 @@
       </c>
     </row>
     <row r="586" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B586" s="41"/>
-      <c r="C586" s="43"/>
+      <c r="B586" s="40"/>
+      <c r="C586" s="42"/>
       <c r="D586" s="28"/>
       <c r="E586" s="28"/>
       <c r="F586" s="28"/>
@@ -15398,8 +15383,8 @@
       </c>
     </row>
     <row r="587" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B587" s="41"/>
-      <c r="C587" s="43"/>
+      <c r="B587" s="40"/>
+      <c r="C587" s="42"/>
       <c r="D587" s="28"/>
       <c r="E587" s="28"/>
       <c r="F587" s="29"/>
@@ -15421,12 +15406,12 @@
       </c>
     </row>
     <row r="588" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B588" s="41"/>
-      <c r="C588" s="43"/>
+      <c r="B588" s="40"/>
+      <c r="C588" s="42"/>
       <c r="D588" s="28"/>
       <c r="E588" s="28"/>
       <c r="F588" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G588" s="12"/>
       <c r="H588" s="12"/>
@@ -15444,8 +15429,8 @@
       </c>
     </row>
     <row r="589" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B589" s="41"/>
-      <c r="C589" s="43"/>
+      <c r="B589" s="40"/>
+      <c r="C589" s="42"/>
       <c r="D589" s="28"/>
       <c r="E589" s="28"/>
       <c r="F589" s="30"/>
@@ -15467,8 +15452,8 @@
       </c>
     </row>
     <row r="590" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B590" s="41"/>
-      <c r="C590" s="43"/>
+      <c r="B590" s="40"/>
+      <c r="C590" s="42"/>
       <c r="D590" s="28"/>
       <c r="E590" s="28"/>
       <c r="F590" s="30"/>
@@ -15490,8 +15475,8 @@
       </c>
     </row>
     <row r="591" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B591" s="41"/>
-      <c r="C591" s="43"/>
+      <c r="B591" s="40"/>
+      <c r="C591" s="42"/>
       <c r="D591" s="28"/>
       <c r="E591" s="28"/>
       <c r="F591" s="31"/>
@@ -15513,12 +15498,12 @@
       </c>
     </row>
     <row r="592" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B592" s="41"/>
-      <c r="C592" s="43"/>
+      <c r="B592" s="40"/>
+      <c r="C592" s="42"/>
       <c r="D592" s="28"/>
       <c r="E592" s="28"/>
       <c r="F592" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G592" s="12"/>
       <c r="H592" s="12"/>
@@ -15536,8 +15521,8 @@
       </c>
     </row>
     <row r="593" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B593" s="41"/>
-      <c r="C593" s="43"/>
+      <c r="B593" s="40"/>
+      <c r="C593" s="42"/>
       <c r="D593" s="28"/>
       <c r="E593" s="28"/>
       <c r="F593" s="30"/>
@@ -15559,8 +15544,8 @@
       </c>
     </row>
     <row r="594" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B594" s="41"/>
-      <c r="C594" s="43"/>
+      <c r="B594" s="40"/>
+      <c r="C594" s="42"/>
       <c r="D594" s="28"/>
       <c r="E594" s="28"/>
       <c r="F594" s="30"/>
@@ -15582,8 +15567,8 @@
       </c>
     </row>
     <row r="595" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B595" s="41"/>
-      <c r="C595" s="43"/>
+      <c r="B595" s="40"/>
+      <c r="C595" s="42"/>
       <c r="D595" s="28"/>
       <c r="E595" s="28"/>
       <c r="F595" s="31"/>
@@ -15605,12 +15590,12 @@
       </c>
     </row>
     <row r="596" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B596" s="41"/>
-      <c r="C596" s="43"/>
+      <c r="B596" s="40"/>
+      <c r="C596" s="42"/>
       <c r="D596" s="28"/>
       <c r="E596" s="28"/>
       <c r="F596" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G596" s="10"/>
       <c r="H596" s="10"/>
@@ -15628,8 +15613,8 @@
       </c>
     </row>
     <row r="597" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B597" s="41"/>
-      <c r="C597" s="43"/>
+      <c r="B597" s="40"/>
+      <c r="C597" s="42"/>
       <c r="D597" s="28"/>
       <c r="E597" s="28"/>
       <c r="F597" s="30"/>
@@ -15651,8 +15636,8 @@
       </c>
     </row>
     <row r="598" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B598" s="41"/>
-      <c r="C598" s="43"/>
+      <c r="B598" s="40"/>
+      <c r="C598" s="42"/>
       <c r="D598" s="28"/>
       <c r="E598" s="28"/>
       <c r="F598" s="30"/>
@@ -15674,8 +15659,8 @@
       </c>
     </row>
     <row r="599" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B599" s="41"/>
-      <c r="C599" s="43"/>
+      <c r="B599" s="40"/>
+      <c r="C599" s="42"/>
       <c r="D599" s="28"/>
       <c r="E599" s="28"/>
       <c r="F599" s="31"/>
@@ -15697,12 +15682,12 @@
       </c>
     </row>
     <row r="600" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B600" s="41"/>
-      <c r="C600" s="43"/>
+      <c r="B600" s="40"/>
+      <c r="C600" s="42"/>
       <c r="D600" s="28"/>
       <c r="E600" s="28"/>
       <c r="F600" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G600" s="10"/>
       <c r="H600" s="10">
@@ -15722,8 +15707,8 @@
       </c>
     </row>
     <row r="601" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B601" s="41"/>
-      <c r="C601" s="43"/>
+      <c r="B601" s="40"/>
+      <c r="C601" s="42"/>
       <c r="D601" s="28"/>
       <c r="E601" s="28"/>
       <c r="F601" s="30"/>
@@ -15745,8 +15730,8 @@
       </c>
     </row>
     <row r="602" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B602" s="41"/>
-      <c r="C602" s="43"/>
+      <c r="B602" s="40"/>
+      <c r="C602" s="42"/>
       <c r="D602" s="29"/>
       <c r="E602" s="29"/>
       <c r="F602" s="31"/>
@@ -15768,16 +15753,16 @@
       </c>
     </row>
     <row r="603" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B603" s="41"/>
-      <c r="C603" s="43"/>
+      <c r="B603" s="40"/>
+      <c r="C603" s="42"/>
       <c r="D603" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E603" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F603" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G603" s="20"/>
       <c r="H603" s="20"/>
@@ -15795,8 +15780,8 @@
       </c>
     </row>
     <row r="604" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B604" s="41"/>
-      <c r="C604" s="43"/>
+      <c r="B604" s="40"/>
+      <c r="C604" s="42"/>
       <c r="D604" s="28"/>
       <c r="E604" s="28"/>
       <c r="F604" s="30"/>
@@ -15818,8 +15803,8 @@
       </c>
     </row>
     <row r="605" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B605" s="41"/>
-      <c r="C605" s="43"/>
+      <c r="B605" s="40"/>
+      <c r="C605" s="42"/>
       <c r="D605" s="28"/>
       <c r="E605" s="28"/>
       <c r="F605" s="30"/>
@@ -15841,8 +15826,8 @@
       </c>
     </row>
     <row r="606" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B606" s="41"/>
-      <c r="C606" s="43"/>
+      <c r="B606" s="40"/>
+      <c r="C606" s="42"/>
       <c r="D606" s="28"/>
       <c r="E606" s="28"/>
       <c r="F606" s="31"/>
@@ -15864,12 +15849,12 @@
       </c>
     </row>
     <row r="607" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B607" s="41"/>
-      <c r="C607" s="43"/>
+      <c r="B607" s="40"/>
+      <c r="C607" s="42"/>
       <c r="D607" s="28"/>
       <c r="E607" s="28"/>
       <c r="F607" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G607" s="12"/>
       <c r="H607" s="12"/>
@@ -15887,8 +15872,8 @@
       </c>
     </row>
     <row r="608" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B608" s="41"/>
-      <c r="C608" s="43"/>
+      <c r="B608" s="40"/>
+      <c r="C608" s="42"/>
       <c r="D608" s="28"/>
       <c r="E608" s="28"/>
       <c r="F608" s="28"/>
@@ -15910,8 +15895,8 @@
       </c>
     </row>
     <row r="609" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B609" s="41"/>
-      <c r="C609" s="43"/>
+      <c r="B609" s="40"/>
+      <c r="C609" s="42"/>
       <c r="D609" s="28"/>
       <c r="E609" s="28"/>
       <c r="F609" s="28"/>
@@ -15933,8 +15918,8 @@
       </c>
     </row>
     <row r="610" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B610" s="41"/>
-      <c r="C610" s="43"/>
+      <c r="B610" s="40"/>
+      <c r="C610" s="42"/>
       <c r="D610" s="28"/>
       <c r="E610" s="28"/>
       <c r="F610" s="29"/>
@@ -15956,12 +15941,12 @@
       </c>
     </row>
     <row r="611" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B611" s="41"/>
-      <c r="C611" s="43"/>
+      <c r="B611" s="40"/>
+      <c r="C611" s="42"/>
       <c r="D611" s="28"/>
       <c r="E611" s="28"/>
       <c r="F611" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G611" s="12"/>
       <c r="H611" s="12"/>
@@ -15979,8 +15964,8 @@
       </c>
     </row>
     <row r="612" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B612" s="41"/>
-      <c r="C612" s="43"/>
+      <c r="B612" s="40"/>
+      <c r="C612" s="42"/>
       <c r="D612" s="28"/>
       <c r="E612" s="28"/>
       <c r="F612" s="30"/>
@@ -16002,8 +15987,8 @@
       </c>
     </row>
     <row r="613" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B613" s="41"/>
-      <c r="C613" s="43"/>
+      <c r="B613" s="40"/>
+      <c r="C613" s="42"/>
       <c r="D613" s="28"/>
       <c r="E613" s="28"/>
       <c r="F613" s="30"/>
@@ -16025,8 +16010,8 @@
       </c>
     </row>
     <row r="614" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B614" s="41"/>
-      <c r="C614" s="43"/>
+      <c r="B614" s="40"/>
+      <c r="C614" s="42"/>
       <c r="D614" s="28"/>
       <c r="E614" s="28"/>
       <c r="F614" s="31"/>
@@ -16048,12 +16033,12 @@
       </c>
     </row>
     <row r="615" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B615" s="41"/>
-      <c r="C615" s="43"/>
+      <c r="B615" s="40"/>
+      <c r="C615" s="42"/>
       <c r="D615" s="28"/>
       <c r="E615" s="28"/>
       <c r="F615" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G615" s="12"/>
       <c r="H615" s="12"/>
@@ -16071,8 +16056,8 @@
       </c>
     </row>
     <row r="616" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B616" s="41"/>
-      <c r="C616" s="43"/>
+      <c r="B616" s="40"/>
+      <c r="C616" s="42"/>
       <c r="D616" s="28"/>
       <c r="E616" s="28"/>
       <c r="F616" s="30"/>
@@ -16094,8 +16079,8 @@
       </c>
     </row>
     <row r="617" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B617" s="41"/>
-      <c r="C617" s="43"/>
+      <c r="B617" s="40"/>
+      <c r="C617" s="42"/>
       <c r="D617" s="28"/>
       <c r="E617" s="28"/>
       <c r="F617" s="30"/>
@@ -16117,8 +16102,8 @@
       </c>
     </row>
     <row r="618" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B618" s="41"/>
-      <c r="C618" s="43"/>
+      <c r="B618" s="40"/>
+      <c r="C618" s="42"/>
       <c r="D618" s="28"/>
       <c r="E618" s="28"/>
       <c r="F618" s="31"/>
@@ -16140,12 +16125,12 @@
       </c>
     </row>
     <row r="619" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B619" s="41"/>
-      <c r="C619" s="43"/>
+      <c r="B619" s="40"/>
+      <c r="C619" s="42"/>
       <c r="D619" s="28"/>
       <c r="E619" s="28"/>
       <c r="F619" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G619" s="10"/>
       <c r="H619" s="10"/>
@@ -16163,8 +16148,8 @@
       </c>
     </row>
     <row r="620" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B620" s="41"/>
-      <c r="C620" s="43"/>
+      <c r="B620" s="40"/>
+      <c r="C620" s="42"/>
       <c r="D620" s="28"/>
       <c r="E620" s="28"/>
       <c r="F620" s="30"/>
@@ -16186,8 +16171,8 @@
       </c>
     </row>
     <row r="621" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B621" s="41"/>
-      <c r="C621" s="43"/>
+      <c r="B621" s="40"/>
+      <c r="C621" s="42"/>
       <c r="D621" s="28"/>
       <c r="E621" s="28"/>
       <c r="F621" s="30"/>
@@ -16209,8 +16194,8 @@
       </c>
     </row>
     <row r="622" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B622" s="41"/>
-      <c r="C622" s="43"/>
+      <c r="B622" s="40"/>
+      <c r="C622" s="42"/>
       <c r="D622" s="28"/>
       <c r="E622" s="28"/>
       <c r="F622" s="31"/>
@@ -16232,12 +16217,12 @@
       </c>
     </row>
     <row r="623" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B623" s="41"/>
-      <c r="C623" s="43"/>
+      <c r="B623" s="40"/>
+      <c r="C623" s="42"/>
       <c r="D623" s="28"/>
       <c r="E623" s="28"/>
       <c r="F623" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G623" s="10"/>
       <c r="H623" s="10">
@@ -16257,8 +16242,8 @@
       </c>
     </row>
     <row r="624" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B624" s="41"/>
-      <c r="C624" s="43"/>
+      <c r="B624" s="40"/>
+      <c r="C624" s="42"/>
       <c r="D624" s="28"/>
       <c r="E624" s="28"/>
       <c r="F624" s="30"/>
@@ -16280,11 +16265,11 @@
       </c>
     </row>
     <row r="625" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B625" s="42"/>
-      <c r="C625" s="43"/>
+      <c r="B625" s="41"/>
+      <c r="C625" s="42"/>
       <c r="D625" s="37"/>
       <c r="E625" s="37"/>
-      <c r="F625" s="39"/>
+      <c r="F625" s="43"/>
       <c r="G625" s="13"/>
       <c r="H625" s="13">
         <v>30</v>
@@ -16304,19 +16289,19 @@
     </row>
     <row r="626" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B626" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C626" s="36">
         <v>0.2</v>
       </c>
       <c r="D626" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E626" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F626" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G626" s="14"/>
       <c r="H626" s="14"/>
@@ -16408,7 +16393,7 @@
       <c r="D630" s="28"/>
       <c r="E630" s="28"/>
       <c r="F630" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G630" s="12"/>
       <c r="H630" s="12"/>
@@ -16500,7 +16485,7 @@
       <c r="D634" s="28"/>
       <c r="E634" s="28"/>
       <c r="F634" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G634" s="12"/>
       <c r="H634" s="12"/>
@@ -16592,7 +16577,7 @@
       <c r="D638" s="28"/>
       <c r="E638" s="28"/>
       <c r="F638" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G638" s="12"/>
       <c r="H638" s="12"/>
@@ -16684,7 +16669,7 @@
       <c r="D642" s="28"/>
       <c r="E642" s="28"/>
       <c r="F642" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G642" s="10"/>
       <c r="H642" s="10"/>
@@ -16776,7 +16761,7 @@
       <c r="D646" s="28"/>
       <c r="E646" s="28"/>
       <c r="F646" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G646" s="10"/>
       <c r="H646" s="10">
@@ -16823,7 +16808,7 @@
       <c r="C648" s="37"/>
       <c r="D648" s="37"/>
       <c r="E648" s="37"/>
-      <c r="F648" s="39"/>
+      <c r="F648" s="43"/>
       <c r="G648" s="13"/>
       <c r="H648" s="13">
         <v>30</v>
@@ -16847,13 +16832,13 @@
         <v>0.3</v>
       </c>
       <c r="D649" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E649" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F649" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G649" s="14"/>
       <c r="H649" s="14"/>
@@ -16945,7 +16930,7 @@
       <c r="D653" s="28"/>
       <c r="E653" s="28"/>
       <c r="F653" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G653" s="12"/>
       <c r="H653" s="12"/>
@@ -17037,7 +17022,7 @@
       <c r="D657" s="28"/>
       <c r="E657" s="28"/>
       <c r="F657" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G657" s="12"/>
       <c r="H657" s="12"/>
@@ -17129,7 +17114,7 @@
       <c r="D661" s="28"/>
       <c r="E661" s="28"/>
       <c r="F661" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G661" s="12"/>
       <c r="H661" s="12"/>
@@ -17221,7 +17206,7 @@
       <c r="D665" s="28"/>
       <c r="E665" s="28"/>
       <c r="F665" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G665" s="10"/>
       <c r="H665" s="10"/>
@@ -17313,7 +17298,7 @@
       <c r="D669" s="28"/>
       <c r="E669" s="28"/>
       <c r="F669" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G669" s="10"/>
       <c r="H669" s="10">
@@ -17360,7 +17345,7 @@
       <c r="C671" s="37"/>
       <c r="D671" s="37"/>
       <c r="E671" s="37"/>
-      <c r="F671" s="39"/>
+      <c r="F671" s="43"/>
       <c r="G671" s="13"/>
       <c r="H671" s="13">
         <v>30</v>
@@ -17380,7 +17365,7 @@
     </row>
     <row r="672" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B672" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C672" s="36">
         <v>0.2</v>
@@ -17389,10 +17374,10 @@
         <v>2</v>
       </c>
       <c r="E672" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F672" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G672" s="14"/>
       <c r="H672" s="14"/>
@@ -17484,7 +17469,7 @@
       <c r="D676" s="28"/>
       <c r="E676" s="28"/>
       <c r="F676" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G676" s="12"/>
       <c r="H676" s="12"/>
@@ -17576,7 +17561,7 @@
       <c r="D680" s="28"/>
       <c r="E680" s="28"/>
       <c r="F680" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G680" s="12"/>
       <c r="H680" s="12"/>
@@ -17668,7 +17653,7 @@
       <c r="D684" s="28"/>
       <c r="E684" s="28"/>
       <c r="F684" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G684" s="12"/>
       <c r="H684" s="12"/>
@@ -17764,7 +17749,7 @@
       <c r="D688" s="28"/>
       <c r="E688" s="28"/>
       <c r="F688" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G688" s="10"/>
       <c r="H688" s="10"/>
@@ -17856,7 +17841,7 @@
       <c r="D692" s="28"/>
       <c r="E692" s="28"/>
       <c r="F692" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G692" s="10"/>
       <c r="H692" s="10">
@@ -17928,10 +17913,10 @@
         <v>3</v>
       </c>
       <c r="E695" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F695" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G695" s="12"/>
       <c r="H695" s="12"/>
@@ -18023,7 +18008,7 @@
       <c r="D699" s="28"/>
       <c r="E699" s="28"/>
       <c r="F699" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G699" s="12"/>
       <c r="H699" s="12"/>
@@ -18115,7 +18100,7 @@
       <c r="D703" s="28"/>
       <c r="E703" s="28"/>
       <c r="F703" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G703" s="12"/>
       <c r="H703" s="12"/>
@@ -18207,7 +18192,7 @@
       <c r="D707" s="28"/>
       <c r="E707" s="28"/>
       <c r="F707" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G707" s="12"/>
       <c r="H707" s="12"/>
@@ -18299,7 +18284,7 @@
       <c r="D711" s="28"/>
       <c r="E711" s="28"/>
       <c r="F711" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G711" s="10"/>
       <c r="H711" s="10"/>
@@ -18391,7 +18376,7 @@
       <c r="D715" s="28"/>
       <c r="E715" s="28"/>
       <c r="F715" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G715" s="10"/>
       <c r="H715" s="10">
@@ -18463,10 +18448,10 @@
         <v>4</v>
       </c>
       <c r="E718" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F718" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G718" s="12"/>
       <c r="H718" s="12"/>
@@ -18558,7 +18543,7 @@
       <c r="D722" s="28"/>
       <c r="E722" s="28"/>
       <c r="F722" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G722" s="12"/>
       <c r="H722" s="12"/>
@@ -18650,7 +18635,7 @@
       <c r="D726" s="28"/>
       <c r="E726" s="28"/>
       <c r="F726" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G726" s="12"/>
       <c r="H726" s="12"/>
@@ -18742,7 +18727,7 @@
       <c r="D730" s="28"/>
       <c r="E730" s="28"/>
       <c r="F730" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G730" s="12"/>
       <c r="H730" s="12"/>
@@ -18834,7 +18819,7 @@
       <c r="D734" s="28"/>
       <c r="E734" s="28"/>
       <c r="F734" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G734" s="10"/>
       <c r="H734" s="10"/>
@@ -18926,7 +18911,7 @@
       <c r="D738" s="28"/>
       <c r="E738" s="28"/>
       <c r="F738" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G738" s="10"/>
       <c r="H738" s="10">
@@ -19000,10 +18985,10 @@
         <v>2</v>
       </c>
       <c r="E741" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F741" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G741" s="14"/>
       <c r="H741" s="14"/>
@@ -19095,7 +19080,7 @@
       <c r="D745" s="28"/>
       <c r="E745" s="28"/>
       <c r="F745" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G745" s="12"/>
       <c r="H745" s="12"/>
@@ -19187,7 +19172,7 @@
       <c r="D749" s="28"/>
       <c r="E749" s="28"/>
       <c r="F749" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G749" s="12"/>
       <c r="H749" s="12"/>
@@ -19279,7 +19264,7 @@
       <c r="D753" s="28"/>
       <c r="E753" s="28"/>
       <c r="F753" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G753" s="12"/>
       <c r="H753" s="12"/>
@@ -19371,7 +19356,7 @@
       <c r="D757" s="28"/>
       <c r="E757" s="28"/>
       <c r="F757" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G757" s="10"/>
       <c r="H757" s="10"/>
@@ -19463,7 +19448,7 @@
       <c r="D761" s="28"/>
       <c r="E761" s="28"/>
       <c r="F761" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G761" s="10"/>
       <c r="H761" s="10">
@@ -19535,10 +19520,10 @@
         <v>3</v>
       </c>
       <c r="E764" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F764" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G764" s="12"/>
       <c r="H764" s="12"/>
@@ -19630,7 +19615,7 @@
       <c r="D768" s="28"/>
       <c r="E768" s="28"/>
       <c r="F768" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G768" s="12"/>
       <c r="H768" s="12"/>
@@ -19658,7 +19643,7 @@
       </c>
       <c r="H769" s="12"/>
       <c r="I769" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J769" s="12">
         <v>0.753</v>
@@ -19722,7 +19707,7 @@
       <c r="D772" s="28"/>
       <c r="E772" s="28"/>
       <c r="F772" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G772" s="12"/>
       <c r="H772" s="12"/>
@@ -19814,7 +19799,7 @@
       <c r="D776" s="28"/>
       <c r="E776" s="28"/>
       <c r="F776" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G776" s="12"/>
       <c r="H776" s="12"/>
@@ -19906,7 +19891,7 @@
       <c r="D780" s="28"/>
       <c r="E780" s="28"/>
       <c r="F780" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G780" s="10"/>
       <c r="H780" s="10"/>
@@ -19998,7 +19983,7 @@
       <c r="D784" s="28"/>
       <c r="E784" s="28"/>
       <c r="F784" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G784" s="10"/>
       <c r="H784" s="10">
@@ -20070,10 +20055,10 @@
         <v>4</v>
       </c>
       <c r="E787" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F787" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G787" s="12"/>
       <c r="H787" s="12"/>
@@ -20165,7 +20150,7 @@
       <c r="D791" s="28"/>
       <c r="E791" s="28"/>
       <c r="F791" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G791" s="12"/>
       <c r="H791" s="12"/>
@@ -20257,7 +20242,7 @@
       <c r="D795" s="28"/>
       <c r="E795" s="28"/>
       <c r="F795" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G795" s="12"/>
       <c r="H795" s="12"/>
@@ -20349,7 +20334,7 @@
       <c r="D799" s="28"/>
       <c r="E799" s="28"/>
       <c r="F799" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G799" s="12"/>
       <c r="H799" s="12"/>
@@ -20441,7 +20426,7 @@
       <c r="D803" s="28"/>
       <c r="E803" s="28"/>
       <c r="F803" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G803" s="10"/>
       <c r="H803" s="10"/>
@@ -20537,7 +20522,7 @@
       <c r="D807" s="28"/>
       <c r="E807" s="28"/>
       <c r="F807" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G807" s="10"/>
       <c r="H807" s="10">
@@ -20585,7 +20570,7 @@
       <c r="C809" s="37"/>
       <c r="D809" s="37"/>
       <c r="E809" s="37"/>
-      <c r="F809" s="39"/>
+      <c r="F809" s="43"/>
       <c r="G809" s="13"/>
       <c r="H809" s="13">
         <v>30</v>
@@ -20699,6 +20684,8 @@
     <mergeCell ref="F331:F334"/>
     <mergeCell ref="F335:F338"/>
     <mergeCell ref="F339:F342"/>
+    <mergeCell ref="F343:F346"/>
+    <mergeCell ref="F347:F349"/>
     <mergeCell ref="B2:B47"/>
     <mergeCell ref="D2:D24"/>
     <mergeCell ref="B48:B93"/>
@@ -20785,8 +20772,6 @@
     <mergeCell ref="F137:F139"/>
     <mergeCell ref="D140:D162"/>
     <mergeCell ref="F140:F143"/>
-    <mergeCell ref="F343:F346"/>
-    <mergeCell ref="F347:F349"/>
     <mergeCell ref="F370:F372"/>
     <mergeCell ref="D465:D487"/>
     <mergeCell ref="F465:F468"/>
@@ -20804,8 +20789,6 @@
     <mergeCell ref="F396:F399"/>
     <mergeCell ref="F400:F403"/>
     <mergeCell ref="F404:F407"/>
-    <mergeCell ref="D488:D510"/>
-    <mergeCell ref="F488:F491"/>
     <mergeCell ref="F492:F495"/>
     <mergeCell ref="F496:F499"/>
     <mergeCell ref="F500:F503"/>
@@ -20842,6 +20825,7 @@
     <mergeCell ref="F523:F526"/>
     <mergeCell ref="F527:F530"/>
     <mergeCell ref="F531:F533"/>
+    <mergeCell ref="F488:F491"/>
     <mergeCell ref="F580:F583"/>
     <mergeCell ref="F584:F587"/>
     <mergeCell ref="F588:F591"/>
@@ -20880,6 +20864,7 @@
     <mergeCell ref="E649:E671"/>
     <mergeCell ref="B304:B625"/>
     <mergeCell ref="C465:C625"/>
+    <mergeCell ref="D488:D510"/>
     <mergeCell ref="B232:B303"/>
     <mergeCell ref="C232:C303"/>
     <mergeCell ref="D296:D303"/>
@@ -20952,8 +20937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E173075-3325-4AAA-BD2D-5ACB4A2BD20D}">
   <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20977,72 +20962,72 @@
   <sheetData>
     <row r="1" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -21051,10 +21036,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>0.77300000000000002</v>
@@ -21071,25 +21056,25 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -21098,10 +21083,10 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>0.77300000000000002</v>
@@ -21118,25 +21103,25 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -21145,10 +21130,10 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M4">
         <v>0.77300000000000002</v>
@@ -21165,25 +21150,25 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -21192,10 +21177,10 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <v>0.77300000000000002</v>
@@ -21212,25 +21197,25 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>115</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -21239,10 +21224,10 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M6">
         <v>0.77300000000000002</v>
@@ -21259,25 +21244,25 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -21286,10 +21271,10 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M7">
         <v>0.77300000000000002</v>
@@ -21306,25 +21291,25 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -21333,10 +21318,10 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8">
         <v>0.78600000000000003</v>
@@ -21353,25 +21338,25 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -21380,10 +21365,10 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M9">
         <v>0.78600000000000003</v>
@@ -21400,25 +21385,25 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -21427,10 +21412,10 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M10">
         <v>0.78600000000000003</v>
@@ -21447,25 +21432,25 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -21474,10 +21459,10 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M11">
         <v>0.78900000000000003</v>
@@ -21494,25 +21479,25 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>115</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -21521,10 +21506,10 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M12">
         <v>0.78900000000000003</v>
@@ -21541,25 +21526,25 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -21568,10 +21553,10 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M13">
         <v>0.78900000000000003</v>
@@ -21588,25 +21573,25 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -21615,10 +21600,10 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M14">
         <v>0.78900000000000003</v>
@@ -21635,25 +21620,25 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -21662,10 +21647,10 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M15">
         <v>0.78900000000000003</v>
@@ -21682,25 +21667,25 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -21709,10 +21694,10 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M16">
         <v>0.78900000000000003</v>
@@ -21729,25 +21714,25 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -21756,10 +21741,10 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M17">
         <v>0.79200000000000004</v>
@@ -21776,25 +21761,25 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -21803,10 +21788,10 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0.79200000000000004</v>
@@ -21823,25 +21808,25 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -21850,10 +21835,10 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0.79200000000000004</v>
@@ -21870,31 +21855,31 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
-        <v>120</v>
+      <c r="J20">
+        <v>2</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -21917,31 +21902,31 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>120</v>
+      <c r="J21">
+        <v>2</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -21964,31 +21949,31 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>120</v>
+      <c r="J22">
+        <v>2</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -22011,31 +21996,31 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
-        <v>120</v>
+      <c r="J23">
+        <v>2</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -22058,31 +22043,31 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
-        <v>120</v>
+      <c r="J24">
+        <v>2</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -22105,31 +22090,31 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
-        <v>120</v>
+      <c r="J25">
+        <v>2</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -22152,31 +22137,31 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>120</v>
+      <c r="J26">
+        <v>2</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -22199,31 +22184,31 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27" t="s">
-        <v>120</v>
+      <c r="J27">
+        <v>2</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -22246,31 +22231,31 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28" t="s">
-        <v>120</v>
+      <c r="J28">
+        <v>2</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -22293,31 +22278,31 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" t="s">
-        <v>120</v>
+      <c r="J29">
+        <v>2</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -22340,31 +22325,31 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" t="s">
-        <v>120</v>
+      <c r="J30">
+        <v>2</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -22387,31 +22372,31 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" t="s">
-        <v>120</v>
+      <c r="J31">
+        <v>2</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -22434,31 +22419,31 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" t="s">
-        <v>120</v>
+      <c r="J32">
+        <v>2</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -22481,31 +22466,31 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" t="s">
-        <v>120</v>
+      <c r="J33">
+        <v>2</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -22528,31 +22513,31 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
-        <v>120</v>
+      <c r="J34">
+        <v>2</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -22575,31 +22560,31 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" t="s">
-        <v>120</v>
+      <c r="J35">
+        <v>2</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -22622,31 +22607,31 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
-        <v>120</v>
+      <c r="J36">
+        <v>2</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -22669,31 +22654,31 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" t="s">
-        <v>120</v>
+      <c r="J37">
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -22716,25 +22701,25 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -22763,25 +22748,25 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -22810,25 +22795,25 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -22857,25 +22842,25 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -22904,25 +22889,25 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>115</v>
       </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>116</v>
-      </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -22951,25 +22936,25 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43">
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -22998,25 +22983,25 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -23045,25 +23030,25 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -23092,25 +23077,25 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -23139,25 +23124,25 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -23175,7 +23160,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="N47">
-        <v>731</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="O47">
         <v>0.78900000000000003</v>
@@ -23186,25 +23171,25 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -23233,25 +23218,25 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -23280,25 +23265,25 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -23319,33 +23304,33 @@
         <v>0.73</v>
       </c>
       <c r="O50">
-        <v>7789</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="P50">
-        <v>749</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -23374,25 +23359,25 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -23421,25 +23406,25 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -23468,25 +23453,25 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -23515,25 +23500,25 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55">
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -23562,7 +23547,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N55">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23574,7 +23571,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P55">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
